--- a/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.378</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.268</v>
+        <v>20.265</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.013</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.556</v>
+        <v>20.65</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.972</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.516</v>
+        <v>17.472</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>30.35326322360532</v>
+        <v>-10.14703145005214</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>30.35326322360532</v>
+        <v>18.07595186196707</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30.35326322360532</v>
+        <v>24.35093955898586</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>30.35326322360532</v>
+        <v>-7.180169049987711</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>30.35326322360532</v>
+        <v>10.17914967153163</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30.35326322360532</v>
+        <v>15.40337103592495</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>30.35326322360532</v>
+        <v>5.853326609654715</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30.35326322360532</v>
+        <v>18.92512964335813</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.35326322360532</v>
+        <v>23.60003333961916</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30.35326322360532</v>
+        <v>25.26208616462557</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30.35326322360532</v>
+        <v>35.00869912474676</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>30.35326322360532</v>
+        <v>38.6397849487619</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>30.35326322360532</v>
+        <v>5.142774690809603</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>30.35326322360532</v>
+        <v>25.28230157151611</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30.35326322360532</v>
+        <v>32.41523035941773</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>30.35326322360532</v>
+        <v>-4.702349482563562</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>30.35326322360532</v>
+        <v>23.52720404469179</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>30.35326322360532</v>
+        <v>29.80446840920459</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>30.35326322360532</v>
+        <v>-1.741794377406762</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>30.35326322360532</v>
+        <v>15.62374065714303</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>30.35326322360532</v>
+        <v>20.8498939294108</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>30.35326322360532</v>
+        <v>11.29829145529996</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>30.35326322360532</v>
+        <v>24.37621969796103</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>30.35326322360532</v>
+        <v>29.05249507341799</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.35326322360532</v>
+        <v>30.71773003775118</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30.35326322360532</v>
+        <v>40.46892538895898</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>30.35326322360532</v>
+        <v>44.10104925194335</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>30.35326322360532</v>
+        <v>10.59258905930304</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>30.35326322360532</v>
+        <v>30.74307074833771</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>30.35326322360532</v>
+        <v>37.87634247152235</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>30.35326322360532</v>
+        <v>3.101110573780517</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>30.35326322360532</v>
+        <v>31.33163870162005</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>30.35326322360532</v>
+        <v>37.61015377809397</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>30.35326322360532</v>
+        <v>6.067405694687551</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>30.35326322360532</v>
+        <v>23.43402588542475</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>30.35326322360532</v>
+        <v>28.66147521115502</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30.35326322360532</v>
+        <v>19.10944425586698</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>30.35326322360532</v>
+        <v>32.18792547682668</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>30.35326322360532</v>
+        <v>36.86583845151407</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>30.35326322360532</v>
+        <v>38.53474733976716</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>30.35326322360532</v>
+        <v>48.28667823393462</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>30.35326322360532</v>
+        <v>51.91982283677103</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.35326322360532</v>
+        <v>18.40764368614262</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>30.35326322360532</v>
+        <v>38.55888865415048</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>30.35326322360532</v>
+        <v>45.69364906218246</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>30.35326322360532</v>
+        <v>-3.813482896442764</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30.35326322360532</v>
+        <v>24.41115009194303</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>30.35326322360532</v>
+        <v>30.68537706941314</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>30.35326322360532</v>
+        <v>-0.844886567966995</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>30.35326322360532</v>
+        <v>16.51657835706717</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.35326322360532</v>
+        <v>21.73988011488089</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>30.35326322360532</v>
+        <v>12.18940633669629</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>30.35326322360532</v>
+        <v>25.26316983440259</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>30.35326322360532</v>
+        <v>29.93731582842659</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>30.35326322360532</v>
+        <v>31.59880158797594</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>30.35326322360532</v>
+        <v>41.34528203368657</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>30.35326322360532</v>
+        <v>44.976087909688</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>30.35326322360532</v>
+        <v>11.47664995702033</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>30.35326322360532</v>
+        <v>31.61833496804391</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>30.35326322360532</v>
+        <v>38.75052342334109</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>30.35326322360532</v>
+        <v>1.627325062280335</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30.35326322360532</v>
+        <v>29.85852801976446</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.35326322360532</v>
+        <v>36.13503147166946</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>30.35326322360532</v>
+        <v>4.589613965070868</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>30.35326322360532</v>
+        <v>21.95729489179055</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>30.35326322360532</v>
+        <v>27.18252838076367</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>30.35326322360532</v>
+        <v>17.63049701025287</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>30.35326322360532</v>
+        <v>30.71038545326613</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>30.35326322360532</v>
+        <v>35.38590297023305</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>30.35326322360532</v>
+        <v>37.05057116481433</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>30.35326322360532</v>
+        <v>46.80163363969817</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>30.35326322360532</v>
+        <v>50.43347743863026</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>30.35326322360532</v>
+        <v>16.92259038603382</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>30.35326322360532</v>
+        <v>37.07522976530439</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>30.35326322360532</v>
+        <v>44.20776111957915</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>30.35326322360532</v>
+        <v>9.430724414862453</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>30.35326322360532</v>
+        <v>37.66290191696967</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>30.35326322360532</v>
+        <v>43.94065611612237</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>30.35326322360532</v>
+        <v>12.39875292895729</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>30.35326322360532</v>
+        <v>29.76751898819251</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>30.35326322360532</v>
+        <v>34.99404855633614</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>30.35326322360532</v>
+        <v>25.441588739742</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>30.35326322360532</v>
+        <v>38.52203012776582</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>30.35326322360532</v>
+        <v>43.19918529146153</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>30.35326322360532</v>
+        <v>44.86752704045014</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>30.35326322360532</v>
+        <v>54.61932508990711</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>30.35326322360532</v>
+        <v>58.2521897241202</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>30.35326322360532</v>
+        <v>24.73758374179991</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>30.35326322360532</v>
+        <v>44.89098641457886</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>30.35326322360532</v>
+        <v>52.02500643357249</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>30.35326322360532</v>
+        <v>-5.176424897818464</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>30.35326322360532</v>
+        <v>23.04805147038135</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.35326322360532</v>
+        <v>29.32219825123141</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>30.35326322360532</v>
+        <v>-2.208298059257316</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>30.35326322360532</v>
+        <v>15.15296477035534</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>30.35326322360532</v>
+        <v>20.37616662212147</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>30.35326322360532</v>
+        <v>10.82597859407136</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>30.35326322360532</v>
+        <v>23.89951050343294</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>30.35326322360532</v>
+        <v>28.57359130168166</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>30.35326322360532</v>
+        <v>30.23518242591402</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>30.35326322360532</v>
+        <v>39.98162806080839</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>30.35326322360532</v>
+        <v>43.6123086931257</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>30.35326322360532</v>
+        <v>10.11329709770487</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>30.35326322360532</v>
+        <v>30.2547450798252</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>30.35326322360532</v>
+        <v>37.38681278212474</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>30.35326322360532</v>
+        <v>0.2674790034223236</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>30.35326322360532</v>
+        <v>28.49852546320099</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>30.35326322360532</v>
+        <v>34.77494870034289</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>30.35326322360532</v>
+        <v>3.229298809729727</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>30.35326322360532</v>
+        <v>20.59677776873687</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>30.35326322360532</v>
+        <v>25.82191132747553</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>30.35326322360532</v>
+        <v>16.27016570014646</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>30.35326322360532</v>
+        <v>29.34982264953479</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>30.35326322360532</v>
+        <v>34.02527495279165</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>30.35326322360532</v>
+        <v>35.69004842376651</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>30.35326322360532</v>
+        <v>45.44107610702784</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>30.35326322360532</v>
+        <v>49.07279465283025</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>30.35326322360532</v>
+        <v>15.56233379801986</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>30.35326322360532</v>
+        <v>35.7147362530408</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>30.35326322360532</v>
+        <v>42.84714684591418</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>30.35326322360532</v>
+        <v>8.070987304776537</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>30.35326322360532</v>
+        <v>36.30300830317256</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>30.35326322360532</v>
+        <v>42.58068229122719</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>30.35326322360532</v>
+        <v>11.03854666728492</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>30.35326322360532</v>
+        <v>28.40711075429661</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>30.35326322360532</v>
+        <v>33.63354039998333</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>30.35326322360532</v>
+        <v>24.08136631860637</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>30.35326322360532</v>
+        <v>37.16157620673678</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>30.35326322360532</v>
+        <v>41.83866616221715</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>30.35326322360532</v>
+        <v>43.50711319728364</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>30.35326322360532</v>
+        <v>53.25887644447553</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>30.35326322360532</v>
+        <v>56.89161583835053</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>30.35326322360532</v>
+        <v>23.3774360273292</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>30.35326322360532</v>
+        <v>43.5306017649215</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>30.35326322360532</v>
+        <v>50.6645010210249</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>30.35326322360532</v>
+        <v>-12.9680680940597</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>30.35326322360532</v>
+        <v>15.25426617992233</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>30.35326322360532</v>
+        <v>21.52902849874116</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>30.35326322360532</v>
+        <v>-10.00161919676495</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>30.35326322360532</v>
+        <v>7.357127287957752</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>30.35326322360532</v>
+        <v>12.58110101830712</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>30.35326322360532</v>
+        <v>3.031563986685825</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>30.35326322360532</v>
+        <v>16.10287862595638</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>30.35326322360532</v>
+        <v>20.77756557365379</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>30.35326322360532</v>
+        <v>22.43971049111045</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>30.35326322360532</v>
+        <v>32.18612154735038</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>30.35326322360532</v>
+        <v>35.81710077891162</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>30.35326322360532</v>
+        <v>2.321041762500073</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>30.35326322360532</v>
+        <v>22.45995898991296</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>30.35326322360532</v>
+        <v>29.59262709106534</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>30.35326322360532</v>
+        <v>-7.524621514618019</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>30.35326322360532</v>
+        <v>20.70428281821981</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>30.35326322360532</v>
+        <v>26.98132179325469</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>30.35326322360532</v>
+        <v>-4.564479997220218</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>30.35326322360532</v>
+        <v>12.80048263991526</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>30.35326322360532</v>
+        <v>18.02638827093861</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>30.35326322360532</v>
+        <v>8.475293223457385</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>30.35326322360532</v>
+        <v>21.5527329256943</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>30.35326322360532</v>
+        <v>26.22879155113836</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>30.35326322360532</v>
+        <v>27.89411860755538</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>30.35326322360532</v>
+        <v>37.64511198153232</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>30.35326322360532</v>
+        <v>41.27712923197365</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>30.35326322360532</v>
+        <v>7.769620473664673</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>30.35326322360532</v>
+        <v>27.91949226192312</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>30.35326322360532</v>
+        <v>35.05250331701271</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>30.35326322360532</v>
+        <v>0.2792846720178943</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>30.35326322360532</v>
+        <v>28.50916361071862</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>30.35326322360532</v>
+        <v>34.78745328174821</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>30.35326322360532</v>
+        <v>3.245166059051627</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>30.35326322360532</v>
+        <v>20.61121385149809</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>30.35326322360532</v>
+        <v>25.83841551865649</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>30.35326322360532</v>
+        <v>16.28689206803213</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>30.35326322360532</v>
+        <v>29.36488475206093</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>30.35326322360532</v>
+        <v>34.04258095940023</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>30.35326322360532</v>
+        <v>35.71158184195272</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>30.35326322360532</v>
+        <v>45.46331073474678</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>30.35326322360532</v>
+        <v>49.09634871484539</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>30.35326322360532</v>
+        <v>15.58512103928823</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>30.35326322360532</v>
+        <v>35.73575610410811</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>30.35326322360532</v>
+        <v>42.87025581547553</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>30.35326322360532</v>
+        <v>-4.050989033116906</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.35326322360532</v>
+        <v>24.17254054620574</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>30.35326322360532</v>
+        <v>30.44729146423154</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>30.35326322360532</v>
+        <v>-1.083599499531118</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>30.35326322360532</v>
+        <v>16.27641113612233</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>30.35326322360532</v>
+        <v>21.50032945022352</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>30.35326322360532</v>
+        <v>11.95038304864832</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>30.35326322360532</v>
+        <v>25.02281197709138</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>30.35326322360532</v>
+        <v>29.69743900857114</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>30.35326322360532</v>
+        <v>31.35937012530579</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>30.35326322360532</v>
+        <v>41.10620537081061</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>30.35326322360532</v>
+        <v>44.73713375091918</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>30.35326322360532</v>
+        <v>11.23937378993222</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>30.35326322360532</v>
+        <v>31.37944003768044</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>30.35326322360532</v>
+        <v>38.51212474390869</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>30.35326322360532</v>
+        <v>1.39486986643081</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>30.35326322360532</v>
+        <v>29.62496955889506</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>30.35326322360532</v>
+        <v>35.90199703206136</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>30.35326322360532</v>
+        <v>4.355952186650512</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>30.35326322360532</v>
+        <v>21.72217903854235</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>30.35326322360532</v>
+        <v>26.94802914091034</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>30.35326322360532</v>
+        <v>17.39652494395753</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>30.35326322360532</v>
+        <v>30.47507898972847</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>30.35326322360532</v>
+        <v>35.1510775893876</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>30.35326322360532</v>
+        <v>36.81619089151675</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>30.35326322360532</v>
+        <v>46.56760846868181</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>30.35326322360532</v>
+        <v>50.19957481628242</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>30.35326322360532</v>
+        <v>16.69036522001309</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>30.35326322360532</v>
+        <v>36.84138609183131</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>30.35326322360532</v>
+        <v>43.97441366688216</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>30.35326322360532</v>
+        <v>9.196732717266769</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>30.35326322360532</v>
+        <v>37.42780695176387</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>30.35326322360532</v>
+        <v>43.70608517505187</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>30.35326322360532</v>
+        <v>12.16355482460065</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>30.35326322360532</v>
+        <v>29.53086677115814</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>30.35326322360532</v>
+        <v>34.75801295802606</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>30.35326322360532</v>
+        <v>25.20608026201356</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>30.35326322360532</v>
+        <v>38.28518723517689</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>30.35326322360532</v>
+        <v>42.96282347240347</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>30.35326322360532</v>
+        <v>44.63161064442855</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>30.35326322360532</v>
+        <v>54.38376378136073</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>30.35326322360532</v>
+        <v>58.01675087980735</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>30.35326322360532</v>
+        <v>24.5038223416698</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>30.35326322360532</v>
+        <v>44.65560648608928</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>30.35326322360532</v>
+        <v>51.7901227776579</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>30.35326322360532</v>
+        <v>0.3369685858333753</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>30.35326322360532</v>
+        <v>28.5596835248264</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>30.35326322360532</v>
+        <v>34.83337736931301</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>30.35326322360532</v>
+        <v>3.305197861513108</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>30.35326322360532</v>
+        <v>20.66563174333751</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>30.35326322360532</v>
+        <v>25.88844545540829</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>30.35326322360532</v>
+        <v>16.33887425244055</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>30.35326322360532</v>
+        <v>29.41184335574533</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>30.35326322360532</v>
+        <v>34.08554548989812</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>30.35326322360532</v>
+        <v>35.74676524949339</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>30.35326322360532</v>
+        <v>45.4929027365238</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>30.35326322360532</v>
+        <v>49.12330388366857</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>30.35326322360532</v>
+        <v>15.62621444679237</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>30.35326322360532</v>
+        <v>35.76632610976915</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>30.35326322360532</v>
+        <v>42.89793347526486</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>30.35326322360532</v>
+        <v>5.785261206821616</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>30.35326322360532</v>
+        <v>34.01454572073013</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>30.35326322360532</v>
+        <v>40.29051580730007</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>30.35326322360532</v>
+        <v>8.747183861735067</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>30.35326322360532</v>
+        <v>26.11383341845604</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>30.35326322360532</v>
+        <v>31.33857864557686</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30.35326322360532</v>
+        <v>21.78745021881562</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>30.35326322360532</v>
+        <v>34.86654391576306</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>30.35326322360532</v>
+        <v>39.54161739585973</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>30.35326322360532</v>
+        <v>41.20601911446491</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>30.35326322360532</v>
+        <v>50.95673837992652</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>30.35326322360532</v>
+        <v>54.5881773531394</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>30.35326322360532</v>
+        <v>21.07963950490696</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>30.35326322360532</v>
+        <v>41.23070487450209</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>30.35326322360532</v>
+        <v>48.36265504974622</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>30.35326322360532</v>
+        <v>13.58500180178774</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>30.35326322360532</v>
+        <v>41.81526069711575</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>30.35326322360532</v>
+        <v>48.09248142922527</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>30.35326322360532</v>
+        <v>16.55266329511258</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>30.35326322360532</v>
+        <v>33.9203977892453</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>30.35326322360532</v>
+        <v>39.14643897732643</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>30.35326322360532</v>
+        <v>29.59488218340451</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>30.35326322360532</v>
+        <v>42.67452870884213</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>30.35326322360532</v>
+        <v>47.35123969883867</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>30.35326322360532</v>
+        <v>49.0193148228482</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>30.35326322360532</v>
+        <v>58.77076962034019</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.35326322360532</v>
+        <v>62.40322930765572</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>30.35326322360532</v>
+        <v>28.89097288290239</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>30.35326322360532</v>
+        <v>49.04280144498924</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>30.35326322360532</v>
+        <v>56.1762401740605</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>30.35326322360532</v>
+        <v>-12.36396153102109</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>30.35326322360532</v>
+        <v>15.85693146212114</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>30.35326322360532</v>
+        <v>22.131096996146</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>30.35326322360532</v>
+        <v>-9.397146327874196</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>30.35326322360532</v>
+        <v>7.96116404769819</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>30.35326322360532</v>
+        <v>13.18461400770516</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>30.35326322360532</v>
+        <v>3.635313219029086</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>30.35326322360532</v>
+        <v>16.70637477285553</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>30.35326322360532</v>
+        <v>21.38064308557185</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>30.35326322360532</v>
+        <v>23.04227773641927</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>30.35326322360532</v>
+        <v>32.78780951184538</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>30.35326322360532</v>
+        <v>36.41846581113126</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>30.35326322360532</v>
+        <v>2.923789899644845</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>30.35326322360532</v>
+        <v>23.06209625911973</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>30.35326322360532</v>
+        <v>30.19411703426798</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>30.35326322360532</v>
+        <v>-6.916299850127047</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.35326322360532</v>
+        <v>21.31116299430792</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>30.35326322360532</v>
+        <v>27.58760501913017</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>30.35326322360532</v>
+        <v>-3.955791126925504</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>30.35326322360532</v>
+        <v>13.4087351852485</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>30.35326322360532</v>
+        <v>18.63411694681091</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>30.35326322360532</v>
+        <v>9.083258303659505</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>30.35326322360532</v>
+        <v>22.16044468001203</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>30.35326322360532</v>
+        <v>26.83608460931603</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>30.35326322360532</v>
+        <v>28.50090095968179</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>30.35326322360532</v>
+        <v>38.251014610353</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>30.35326322360532</v>
+        <v>41.88270891059008</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>30.35326322360532</v>
+        <v>8.376583890592457</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>30.35326322360532</v>
+        <v>28.52584433319103</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>30.35326322360532</v>
+        <v>35.6582080929326</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>30.35326322360532</v>
+        <v>0.8871651355707684</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>30.35326322360532</v>
+        <v>29.11560248704657</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>30.35326322360532</v>
+        <v>35.39329508878885</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>30.35326322360532</v>
+        <v>3.853413137390163</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>30.35326322360532</v>
+        <v>21.21902452015868</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>30.35326322360532</v>
+        <v>26.44570218868287</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>30.35326322360532</v>
+        <v>16.89441520137737</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>30.35326322360532</v>
+        <v>29.97215451368962</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>30.35326322360532</v>
+        <v>34.64943187590112</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>30.35326322360532</v>
+        <v>36.31792171437158</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>30.35326322360532</v>
+        <v>46.06877085430872</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>30.35326322360532</v>
+        <v>49.70148583397307</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>30.35326322360532</v>
+        <v>16.19164222840871</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>30.35326322360532</v>
+        <v>36.34166584694984</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>30.35326322360532</v>
+        <v>43.4755181031276</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>30.35326322360532</v>
+        <v>-15.89602728351448</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>30.35326322360532</v>
+        <v>12.32706775507828</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>30.35326322360532</v>
+        <v>18.60186610126371</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>30.35326322360532</v>
+        <v>-12.92905092618432</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>30.35326322360532</v>
+        <v>4.430490898075988</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>30.35326322360532</v>
+        <v>9.65443787378743</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>30.35326322360532</v>
+        <v>0.1042356922889951</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>30.35326322360532</v>
+        <v>13.17623926237948</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>30.35326322360532</v>
+        <v>17.85092177737911</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.35326322360532</v>
+        <v>19.51329977423828</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>30.35326322360532</v>
+        <v>29.2599966152699</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>30.35326322360532</v>
+        <v>32.89101980595356</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>30.35326322360532</v>
+        <v>-0.606283482437874</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>30.35326322360532</v>
+        <v>19.53340942233345</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>30.35326322360532</v>
+        <v>26.66609896749847</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>30.35326322360532</v>
+        <v>-10.45258342152189</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>30.35326322360532</v>
+        <v>17.77708168663096</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>30.35326322360532</v>
+        <v>24.05415664910973</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>30.35326322360532</v>
+        <v>-7.491914350003157</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>30.35326322360532</v>
+        <v>9.873843633835492</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>30.35326322360532</v>
+        <v>15.09972245723125</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>30.35326322360532</v>
+        <v>5.547962402332388</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>30.35326322360532</v>
+        <v>18.62609104331298</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>30.35326322360532</v>
+        <v>23.30214519244308</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>30.35326322360532</v>
+        <v>24.96770543818437</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>30.35326322360532</v>
+        <v>34.71898458468368</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>30.35326322360532</v>
+        <v>38.3510457917686</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>30.35326322360532</v>
+        <v>4.842292823496592</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>30.35326322360532</v>
+        <v>24.99294032200433</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>30.35326322360532</v>
+        <v>32.12597279071011</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>30.35326322360532</v>
+        <v>-2.649721890931772</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>30.35326322360532</v>
+        <v>25.58091781278736</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>30.35326322360532</v>
+        <v>31.85924351724103</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>30.35326322360532</v>
+        <v>0.316687038065794</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>30.35326322360532</v>
+        <v>17.68353018061683</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>30.35326322360532</v>
+        <v>22.91070508209421</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>30.35326322360532</v>
+        <v>13.3585165156949</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>30.35326322360532</v>
+        <v>26.43719813863018</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>30.35326322360532</v>
+        <v>31.1148899139495</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>30.35326322360532</v>
+        <v>32.7841239773575</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>30.35326322360532</v>
+        <v>42.53613870909979</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>30.35326322360532</v>
+        <v>46.16922065855854</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>30.35326322360532</v>
+        <v>12.65674870096294</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>30.35326322360532</v>
+        <v>32.80815952286028</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>30.35326322360532</v>
+        <v>39.94268068438194</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>30.35326322360532</v>
+        <v>2.097337509053915</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>30.35326322360532</v>
+        <v>30.3213620049859</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>30.35326322360532</v>
+        <v>36.59547156726458</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>30.35326322360532</v>
+        <v>5.066852074081027</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>30.35326322360532</v>
+        <v>22.42817657530648</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>30.35326322360532</v>
+        <v>27.65141054391918</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>30.35326322360532</v>
+        <v>18.10115425540019</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>30.35326322360532</v>
+        <v>31.17480693251665</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>30.35326322360532</v>
+        <v>35.8489505356778</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>30.35326322360532</v>
+        <v>37.51037770614246</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>30.35326322360532</v>
+        <v>47.25669421636431</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>30.35326322360532</v>
+        <v>50.88731128904774</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>30.35326322360532</v>
+        <v>17.38908244416305</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>30.35326322360532</v>
+        <v>37.53027030325043</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>30.35326322360532</v>
+        <v>44.66235918282396</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>30.35326322360532</v>
+        <v>7.537885149473624</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>30.35326322360532</v>
+        <v>35.76847936853281</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>30.35326322360532</v>
+        <v>42.04486516891441</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>30.35326322360532</v>
+        <v>10.50109241846283</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>30.35326322360532</v>
+        <v>27.86863270723646</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>30.35326322360532</v>
+        <v>33.09379816590766</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>30.35326322360532</v>
+        <v>23.54198452415338</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>30.35326322360532</v>
+        <v>36.62176192469568</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>30.35326322360532</v>
+        <v>41.29727685798665</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>30.35326322360532</v>
+        <v>42.96188644097313</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>30.35326322360532</v>
+        <v>52.71278481911943</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>30.35326322360532</v>
+        <v>56.34443973265027</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>30.35326322360532</v>
+        <v>22.83476226693713</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>30.35326322360532</v>
+        <v>42.98690416949913</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>30.35326322360532</v>
+        <v>50.11933569186786</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>30.35326322360532</v>
+        <v>15.3400513826048</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>30.35326322360532</v>
+        <v>43.57162007317132</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>30.35326322360532</v>
+        <v>49.84925658995238</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>30.35326322360532</v>
+        <v>18.3089980925661</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>30.35326322360532</v>
+        <v>35.67762343090342</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>30.35326322360532</v>
+        <v>40.90408492993336</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>30.35326322360532</v>
+        <v>31.35184276737962</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>30.35326322360532</v>
+        <v>44.4321730666077</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>30.35326322360532</v>
+        <v>49.10932558967718</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>30.35326322360532</v>
+        <v>50.77760868990393</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>30.35326322360532</v>
+        <v>60.5292426409566</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>30.35326322360532</v>
+        <v>64.16191832965606</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>30.35326322360532</v>
+        <v>30.64852202631121</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>30.35326322360532</v>
+        <v>50.80142717937852</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>30.35326322360532</v>
+        <v>57.93534735177505</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>30.35326322360532</v>
+        <v>-18.18847217712911</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>30.35326322360532</v>
+        <v>10.03227470801679</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>30.35326322360532</v>
+        <v>16.30632300002029</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>30.35326322360532</v>
+        <v>-15.22200328418293</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>30.35326322360532</v>
+        <v>2.136170654126573</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>30.35326322360532</v>
+        <v>7.359470070068966</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>30.35326322360532</v>
+        <v>-2.190038657490021</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>30.35326322360532</v>
+        <v>10.88097893109355</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>30.35326322360532</v>
+        <v>15.55506257640494</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>30.35326322360532</v>
+        <v>17.21668264007602</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>30.35326322360532</v>
+        <v>26.96202296943866</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>30.35326322360532</v>
+        <v>30.59277148723086</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>30.35326322360532</v>
+        <v>-2.902039776114265</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>30.35326322360532</v>
+        <v>17.2363579989873</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>30.35326322360532</v>
+        <v>24.36823958810319</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>30.35326322360532</v>
+        <v>-12.74370242929862</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>30.35326322360532</v>
+        <v>15.48361420478571</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>30.35326322360532</v>
+        <v>21.7599390613598</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>30.35326322360532</v>
+        <v>-9.783539976147352</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>30.35326322360532</v>
+        <v>7.580849796951753</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>30.35326322360532</v>
+        <v>12.80608108515779</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>30.35326322360532</v>
+        <v>3.255014313564544</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>30.35326322360532</v>
+        <v>16.33215663576098</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>30.35326322360532</v>
+        <v>21.00761196435215</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>30.35326322360532</v>
+        <v>22.67241380091721</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>30.35326322360532</v>
+        <v>32.42233593371137</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>30.35326322360532</v>
+        <v>36.05412246522386</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>30.35326322360532</v>
+        <v>2.547862277681844</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>30.35326322360532</v>
+        <v>22.69721393079604</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>30.35326322360532</v>
+        <v>29.8294386850886</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>30.35326322360532</v>
+        <v>-4.939763161996979</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.35326322360532</v>
+        <v>23.28852797874825</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>30.35326322360532</v>
+        <v>29.56610342346895</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>30.35326322360532</v>
+        <v>-1.973861501905247</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>30.35326322360532</v>
+        <v>15.39161334910651</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>30.35326322360532</v>
+        <v>20.61814057137772</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>30.35326322360532</v>
+        <v>11.06664550131566</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>30.35326322360532</v>
+        <v>24.14434075575676</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>30.35326322360532</v>
+        <v>28.82143353874565</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>30.35326322360532</v>
+        <v>30.48990875764619</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>30.35326322360532</v>
+        <v>40.24056635518016</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>30.35326322360532</v>
+        <v>43.87337361049802</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>30.35326322360532</v>
+        <v>10.36339492534924</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>30.35326322360532</v>
+        <v>30.5135097509017</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>30.35326322360532</v>
+        <v>37.64722299546273</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>30.35326322360532</v>
+        <v>-7.508957326390913</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>30.35326322360532</v>
+        <v>20.71430954095175</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>30.35326322360532</v>
+        <v>26.9881450387509</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>30.35326322360532</v>
+        <v>-4.541731659593182</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>30.35326322360532</v>
+        <v>12.81869007698177</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>30.35326322360532</v>
+        <v>18.04159144901067</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>30.35326322360532</v>
+        <v>8.491918000440165</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>30.35326322360532</v>
+        <v>21.56480658667604</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>30.35326322360532</v>
+        <v>26.23857734073502</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>30.35326322360532</v>
+        <v>27.9000699536862</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>30.35326322360532</v>
+        <v>37.64623434222429</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>30.35326322360532</v>
+        <v>41.27677400804558</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>30.35326322360532</v>
+        <v>7.778935383162462</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>30.35326322360532</v>
+        <v>27.9194270474533</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>30.35326322360532</v>
+        <v>35.0511229857249</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>30.35326322360532</v>
+        <v>-2.060853896818998</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.35326322360532</v>
+        <v>26.16898288215341</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>30.35326322360532</v>
+        <v>32.44509481836192</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>30.35326322360532</v>
+        <v>0.9000652101820208</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>30.35326322360532</v>
+        <v>18.2667029170739</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>30.35326322360532</v>
+        <v>23.49153599365152</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>30.35326322360532</v>
+        <v>13.94030503902107</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>30.35326322360532</v>
+        <v>27.01931850130794</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>30.35326322360532</v>
+        <v>31.69446076212742</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>30.35326322360532</v>
+        <v>33.35913541233438</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>30.35326322360532</v>
+        <v>43.1098817313796</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>30.35326322360532</v>
+        <v>46.74145928895362</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>30.35326322360532</v>
+        <v>13.23217167532201</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>30.35326322360532</v>
+        <v>33.38361744350962</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>30.35326322360532</v>
+        <v>40.51565637467732</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>30.35326322360532</v>
+        <v>5.741556383307426</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>30.35326322360532</v>
+        <v>33.97236765276037</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>30.35326322360532</v>
+        <v>40.24973028903949</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>30.35326322360532</v>
+        <v>8.70821465056045</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>30.35326322360532</v>
+        <v>26.07593742631551</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>30.35326322360532</v>
+        <v>31.30206653557369</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>30.35326322360532</v>
+        <v>21.75040720835753</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>30.35326322360532</v>
+        <v>34.82997357489072</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>30.35326322360532</v>
+        <v>39.50675342826995</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>30.35326322360532</v>
+        <v>41.17510149425678</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>30.35326322360532</v>
+        <v>50.92658334467015</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>30.35326322360532</v>
+        <v>54.55918170860869</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>30.35326322360532</v>
+        <v>21.04617532438581</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>30.35326322360532</v>
+        <v>41.19838434381089</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>30.35326322360532</v>
+        <v>48.33191186846719</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>30.35326322360532</v>
+        <v>-18.31730735128596</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>30.35326322360532</v>
+        <v>9.904589751511622</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>30.35326322360532</v>
+        <v>16.17853769649699</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>30.35326322360532</v>
+        <v>-15.35086703483827</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>30.35326322360532</v>
+        <v>2.008047716619586</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>30.35326322360532</v>
+        <v>7.231114538352159</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>30.35326322360532</v>
+        <v>-2.318088030864914</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>30.35326322360532</v>
+        <v>10.75346718237691</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>30.35326322360532</v>
+        <v>15.42740935613622</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>30.35326322360532</v>
+        <v>17.08906665969019</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.35326322360532</v>
+        <v>26.83458061369529</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>30.35326322360532</v>
+        <v>30.46524842790396</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>30.35326322360532</v>
+        <v>-3.030537822324931</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>30.35326322360532</v>
+        <v>17.10849181905726</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>30.35326322360532</v>
+        <v>24.24027884644832</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>30.35326322360532</v>
+        <v>-12.87668264878502</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>30.35326322360532</v>
+        <v>15.35178424600602</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>30.35326322360532</v>
+        <v>21.6280087792002</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>30.35326322360532</v>
+        <v>-9.916549383641467</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>30.35326322360532</v>
+        <v>7.448581189189923</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>30.35326322360532</v>
+        <v>12.6735798835654</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>30.35326322360532</v>
+        <v>3.122819407240314</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>30.35326322360532</v>
+        <v>16.20049937182776</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>30.35326322360532</v>
+        <v>20.87581321899907</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>30.35326322360532</v>
+        <v>22.54065276530153</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>30.35326322360532</v>
+        <v>32.29074859505366</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>30.35326322360532</v>
+        <v>35.92245440598597</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>30.35326322360532</v>
+        <v>2.41521923014696</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>30.35326322360532</v>
+        <v>22.56520292719338</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>30.35326322360532</v>
+        <v>29.69733302166074</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>30.35326322360532</v>
+        <v>-5.070265783962753</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>30.35326322360532</v>
+        <v>23.15917572482934</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>30.35326322360532</v>
+        <v>29.43665087990465</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>30.35326322360532</v>
+        <v>-2.104393139159328</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>30.35326322360532</v>
+        <v>15.26182261876673</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>30.35326322360532</v>
+        <v>20.48811727828254</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>30.35326322360532</v>
+        <v>10.93692860201648</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>30.35326322360532</v>
+        <v>24.01516157956397</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>30.35326322360532</v>
+        <v>28.69211294083655</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>30.35326322360532</v>
+        <v>30.36062585604694</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>30.35326322360532</v>
+        <v>40.1114571847493</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>30.35326322360532</v>
+        <v>43.74418376929091</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>30.35326322360532</v>
+        <v>10.23322975323597</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>30.35326322360532</v>
+        <v>30.38397674031367</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>30.35326322360532</v>
+        <v>37.51759536578211</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>30.35326322360532</v>
+        <v>-24.6134358333446</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>30.35326322360532</v>
+        <v>3.606897191400236</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>30.35326322360532</v>
+        <v>9.880477480775568</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>30.35326322360532</v>
+        <v>-21.64770937109742</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>30.35326322360532</v>
+        <v>-4.290011169700932</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>30.35326322360532</v>
+        <v>0.9327123850810324</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>30.35326322360532</v>
+        <v>-8.615929451341771</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.35326322360532</v>
+        <v>4.454621537540135</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>30.35326322360532</v>
+        <v>9.12823381702313</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>30.35326322360532</v>
+        <v>10.79014459588964</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>30.35326322360532</v>
+        <v>20.535240405113</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>30.35326322360532</v>
+        <v>24.16577009005348</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>30.35326322360532</v>
+        <v>-9.328213375480317</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>30.35326322360532</v>
+        <v>10.80951726154731</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>30.35326322360532</v>
+        <v>17.94087961754181</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>30.35326322360532</v>
+        <v>-19.17118338851216</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>30.35326322360532</v>
+        <v>9.055719195521334</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>30.35326322360532</v>
+        <v>15.33157603809448</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>30.35326322360532</v>
+        <v>-16.21176370009991</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>30.35326322360532</v>
+        <v>1.152150103483365</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>30.35326322360532</v>
+        <v>6.376805512790071</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>30.35326322360532</v>
+        <v>-3.173394163771462</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>30.35326322360532</v>
+        <v>9.90328136342751</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>30.35326322360532</v>
+        <v>14.57826530656067</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>30.35326322360532</v>
+        <v>16.2433581025123</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>30.35326322360532</v>
+        <v>25.99303564271978</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>30.35326322360532</v>
+        <v>29.62460329276169</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>30.35326322360532</v>
+        <v>-3.8808288021838</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>30.35326322360532</v>
+        <v>16.26785546364229</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>30.35326322360532</v>
+        <v>23.39956094727248</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>30.35326322360532</v>
+        <v>-11.36522109084555</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>30.35326322360532</v>
+        <v>16.86265607092835</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>30.35326322360532</v>
+        <v>23.13976348943314</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>30.35326322360532</v>
+        <v>-8.400062279419643</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>30.35326322360532</v>
+        <v>8.96493667180178</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.35326322360532</v>
+        <v>14.19088799479871</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>30.35326322360532</v>
+        <v>4.640260165854698</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>30.35326322360532</v>
+        <v>17.71748868876912</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>30.35326322360532</v>
+        <v>22.39411008160269</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>30.35326322360532</v>
+        <v>24.06287608565643</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>30.35326322360532</v>
+        <v>33.8132890818321</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>30.35326322360532</v>
+        <v>37.44587746401672</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>30.35326322360532</v>
+        <v>3.93672671900211</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.35326322360532</v>
+        <v>24.08617424271316</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>30.35326322360532</v>
+        <v>31.21936817718066</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>30.35326322360532</v>
+        <v>-10.14265034835691</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>30.35326322360532</v>
+        <v>18.08032923992064</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>30.35326322360532</v>
+        <v>24.35514693244082</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>30.35326322360532</v>
+        <v>-7.176193732373321</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>30.35326322360532</v>
+        <v>10.18310844086434</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>30.35326322360532</v>
+        <v>15.40712484142412</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>30.35326322360532</v>
+        <v>5.857541268877895</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>30.35326322360532</v>
+        <v>18.92933844513109</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>30.35326322360532</v>
+        <v>23.60408568539802</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>30.35326322360532</v>
+        <v>25.26613403163336</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>30.35326322360532</v>
+        <v>35.01261263005986</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>30.35326322360532</v>
+        <v>38.6435948916666</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>30.35326322360532</v>
+        <v>5.146879196551737</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>30.35326322360532</v>
+        <v>25.2863814925303</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>30.35326322360532</v>
+        <v>32.41911625692424</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>30.35326322360532</v>
+        <v>-4.702271180316501</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>30.35326322360532</v>
+        <v>23.52727850656677</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>30.35326322360532</v>
+        <v>29.80437283590575</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>30.35326322360532</v>
+        <v>-1.742122060732385</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>30.35326322360532</v>
+        <v>15.62339628806708</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>30.35326322360532</v>
+        <v>20.84934456925308</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>30.35326322360532</v>
+        <v>11.29820291203626</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>30.35326322360532</v>
+        <v>24.37612516871835</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>30.35326322360532</v>
+        <v>29.0522440631137</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>30.35326322360532</v>
+        <v>30.71747482969457</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>30.35326322360532</v>
+        <v>40.46853573057106</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>30.35326322360532</v>
+        <v>44.10055600511933</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>30.35326322360532</v>
+        <v>10.59239069502544</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>30.35326322360532</v>
+        <v>30.74284765281791</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>30.35326322360532</v>
+        <v>37.87592533766761</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>30.35326322360532</v>
+        <v>3.102491783680335</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>30.35326322360532</v>
+        <v>31.33301609002038</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>30.35326322360532</v>
+        <v>37.61136115059858</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>30.35326322360532</v>
+        <v>6.068380877109377</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>30.35326322360532</v>
+        <v>23.43498440008628</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>30.35326322360532</v>
+        <v>28.66222875568681</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>30.35326322360532</v>
+        <v>19.11065868260292</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>30.35326322360532</v>
+        <v>32.18913393373433</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>30.35326322360532</v>
+        <v>36.86689045265999</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>30.35326322360532</v>
+        <v>38.53579502559163</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>30.35326322360532</v>
+        <v>48.28759147215172</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>30.35326322360532</v>
+        <v>51.92063250794402</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>30.35326322360532</v>
+        <v>18.40874815638702</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>30.35326322360532</v>
+        <v>38.55996840817059</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>30.35326322360532</v>
+        <v>45.69453479075108</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>30.35326322360532</v>
+        <v>-6.609216872492283</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>30.35326322360532</v>
+        <v>21.61375576931849</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>30.35326322360532</v>
+        <v>27.88779314650495</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>30.35326322360532</v>
+        <v>-3.64137862062509</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>30.35326322360532</v>
+        <v>13.71871797878296</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>30.35326322360532</v>
+        <v>18.9418980754015</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>30.35326322360532</v>
+        <v>9.392064959117789</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>30.35326322360532</v>
+        <v>22.46472221834975</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>30.35326322360532</v>
+        <v>27.13871707130662</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>30.35326322360532</v>
+        <v>28.80023770378196</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>30.35326322360532</v>
+        <v>38.54619982203943</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>30.35326322360532</v>
+        <v>42.17691056295601</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>30.35326322360532</v>
+        <v>8.679325548999969</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>30.35326322360532</v>
+        <v>28.81970340942715</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>30.35326322360532</v>
+        <v>35.95162037236744</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>30.35326322360532</v>
+        <v>-1.168706907771565</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>30.35326322360532</v>
+        <v>27.06083552385658</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>30.35326322360532</v>
+        <v>33.33714940069527</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>30.35326322360532</v>
+        <v>1.792824284544878</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>30.35326322360532</v>
+        <v>19.15913671866477</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>30.35326322360532</v>
+        <v>24.38424859751197</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>30.35326322360532</v>
+        <v>14.83285769080479</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>30.35326322360532</v>
+        <v>27.91163972136476</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>30.35326322360532</v>
+        <v>32.58700615103569</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>30.35326322360532</v>
+        <v>34.25170899411071</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>30.35326322360532</v>
+        <v>44.00225299561535</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>30.35326322360532</v>
+        <v>47.63400167445744</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>30.35326322360532</v>
+        <v>14.1249678348436</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>30.35326322360532</v>
+        <v>34.27629969376542</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>30.35326322360532</v>
+        <v>41.40855969331349</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>30.35326322360532</v>
+        <v>6.634943394374915</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>30.35326322360532</v>
+        <v>34.86546035002928</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>30.35326322360532</v>
+        <v>41.14302492170489</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>30.35326322360532</v>
+        <v>9.602214023565949</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>30.35326322360532</v>
+        <v>26.96961156211992</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>30.35326322360532</v>
+        <v>32.19601947380934</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>30.35326322360532</v>
+        <v>22.64420017301453</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>30.35326322360532</v>
+        <v>35.72353513114084</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>30.35326322360532</v>
+        <v>40.40053914557964</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>30.35326322360532</v>
+        <v>42.06891542793622</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>30.35326322360532</v>
+        <v>51.82019495015382</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>30.35326322360532</v>
+        <v>55.45296443071564</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>30.35326322360532</v>
+        <v>21.94021182280088</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>30.35326322360532</v>
+        <v>42.09230693674058</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>30.35326322360532</v>
+        <v>49.22605553345502</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>30.35326322360532</v>
+        <v>-2.826237139159019</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>30.35326322360532</v>
+        <v>25.39846031946868</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>30.35326322360532</v>
+        <v>31.67343904105942</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>30.35326322360532</v>
+        <v>0.1418876081907285</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>30.35326322360532</v>
+        <v>17.50282708391003</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>30.35326322360532</v>
+        <v>22.72696432067031</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>30.35326322360532</v>
+        <v>13.17636467163587</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>30.35326322360532</v>
+        <v>26.24956093316885</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>30.35326322360532</v>
+        <v>30.92442130828638</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>30.35326322360532</v>
+        <v>32.58634707481772</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>30.35326322360532</v>
+        <v>42.33342107221929</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>30.35326322360532</v>
+        <v>45.96448502061858</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>30.35326322360532</v>
+        <v>12.46541350423357</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>30.35326322360532</v>
+        <v>32.60656258147654</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>30.35326322360532</v>
+        <v>39.73954231302312</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>30.35326322360532</v>
+        <v>2.616182760038129</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>30.35326322360532</v>
+        <v>30.84745044718514</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>30.35326322360532</v>
+        <v>37.12470574339503</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>30.35326322360532</v>
+        <v>5.577999868479566</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>30.35326322360532</v>
+        <v>22.94515565650082</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>30.35326322360532</v>
+        <v>28.17122468770063</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>30.35326322360532</v>
+        <v>18.61906722062034</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>30.35326322360532</v>
+        <v>31.69838870984054</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>30.35326322360532</v>
+        <v>36.37462065394621</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>30.35326322360532</v>
+        <v>38.03972884051407</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>30.35326322360532</v>
+        <v>47.79138525630734</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>30.35326322360532</v>
+        <v>51.42348718063263</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>30.35326322360532</v>
+        <v>17.91296584260684</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>30.35326322360532</v>
+        <v>38.06506980291354</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>30.35326322360532</v>
+        <v>45.19839233592464</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>30.35326322360532</v>
+        <v>10.41894218579844</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.35326322360532</v>
+        <v>38.65118445386159</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>30.35326322360532</v>
+        <v>44.92969052667084</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>30.35326322360532</v>
+        <v>13.3864993835962</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>30.35326322360532</v>
+        <v>30.75474031633533</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>30.35326322360532</v>
+        <v>35.98210546042858</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>30.35326322360532</v>
+        <v>26.42951944041809</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>30.35326322360532</v>
+        <v>39.50939388732823</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>30.35326322360532</v>
+        <v>44.18726350583384</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>30.35326322360532</v>
+        <v>45.85604565007591</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>30.35326322360532</v>
+        <v>55.60843764826544</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>30.35326322360532</v>
+        <v>59.24156036146954</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>30.35326322360532</v>
+        <v>25.72731994832751</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>30.35326322360532</v>
+        <v>45.88018721341624</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>30.35326322360532</v>
+        <v>53.01499850138853</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>30.35326322360532</v>
+        <v>-5.86023748664249</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>30.35326322360532</v>
+        <v>22.36237858419739</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>30.35326322360532</v>
+        <v>28.63728966281772</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>30.35326322360532</v>
+        <v>-2.892482959437274</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>30.35326322360532</v>
+        <v>14.46662495639649</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>30.35326322360532</v>
+        <v>19.69076671800704</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>30.35326322360532</v>
+        <v>10.14081074128697</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>30.35326322360532</v>
+        <v>23.21245187113598</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>30.35326322360532</v>
+        <v>27.88729304857932</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>30.35326322360532</v>
+        <v>29.54929969353955</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>30.35326322360532</v>
+        <v>39.29583199621052</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>30.35326322360532</v>
+        <v>42.92682256395793</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>30.35326322360532</v>
+        <v>9.430158038836709</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>30.35326322360532</v>
+        <v>29.56940136307801</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>30.35326322360532</v>
+        <v>36.70228236778965</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>30.35326322360532</v>
+        <v>-0.41738322994226</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>30.35326322360532</v>
+        <v>27.81180282432823</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>30.35326322360532</v>
+        <v>34.08899048643028</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>30.35326322360532</v>
+        <v>2.544064113699761</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>30.35326322360532</v>
+        <v>19.90938811097126</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>30.35326322360532</v>
+        <v>25.13546169313614</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>30.35326322360532</v>
+        <v>15.58394771076203</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>30.35326322360532</v>
+        <v>28.66171383603424</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>30.35326322360532</v>
+        <v>33.33792661823955</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>30.35326322360532</v>
+        <v>35.00311546177252</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>30.35326322360532</v>
+        <v>44.75423003748406</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.35326322360532</v>
+        <v>48.38625858962283</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>30.35326322360532</v>
+        <v>14.87814457578637</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>30.35326322360532</v>
+        <v>35.02834235005801</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>30.35326322360532</v>
+        <v>42.16156623124564</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>30.35326322360532</v>
+        <v>7.385565056876914</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>30.35326322360532</v>
+        <v>35.61572567832835</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>30.35326322360532</v>
+        <v>41.89416404614693</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>30.35326322360532</v>
+        <v>10.35275230087225</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>30.35326322360532</v>
+        <v>27.71916141448244</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>30.35326322360532</v>
+        <v>32.94653103740032</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>30.35326322360532</v>
+        <v>23.39458859034769</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>30.35326322360532</v>
+        <v>36.4729076618485</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>30.35326322360532</v>
+        <v>41.15075803216385</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>30.35326322360532</v>
+        <v>42.81962074532774</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>30.35326322360532</v>
+        <v>52.57147086073681</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>30.35326322360532</v>
+        <v>56.20452013283992</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>30.35326322360532</v>
+        <v>22.69268718008109</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>30.35326322360532</v>
+        <v>42.84364823293154</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>30.35326322360532</v>
+        <v>49.97836079306072</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>30.35326322360532</v>
+        <v>-7.61748790773035</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.35326322360532</v>
+        <v>20.60723396832523</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>30.35326322360532</v>
+        <v>26.88164248782633</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>30.35326322360532</v>
+        <v>-4.649451632884023</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>30.35326322360532</v>
+        <v>12.71177221855365</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>30.35326322360532</v>
+        <v>17.93525661284789</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>30.35326322360532</v>
+        <v>8.384720388568013</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>30.35326322360532</v>
+        <v>21.45821701723153</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>30.35326322360532</v>
+        <v>26.13250431705561</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>30.35326322360532</v>
+        <v>27.7943969959056</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>30.35326322360532</v>
+        <v>37.54112116367847</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>30.35326322360532</v>
+        <v>41.17187479739405</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>30.35326322360532</v>
+        <v>7.672612004349531</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>30.35326322360532</v>
+        <v>27.81426643912951</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>30.35326322360532</v>
+        <v>34.94659048576696</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>30.35326322360532</v>
+        <v>-2.17587485101896</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>30.35326322360532</v>
+        <v>26.05541720760758</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>30.35326322360532</v>
+        <v>32.33210226745487</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>30.35326322360532</v>
+        <v>0.7858542632987167</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>30.35326322360532</v>
+        <v>18.15329435935328</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30.35326322360532</v>
+        <v>23.3787105366554</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>30.35326322360532</v>
+        <v>13.8266164144234</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>30.35326322360532</v>
+        <v>26.90623819420321</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>30.35326322360532</v>
+        <v>31.58189705440523</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>30.35326322360532</v>
+        <v>33.24697219623388</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>30.35326322360532</v>
+        <v>42.99827857779795</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>30.35326322360532</v>
+        <v>46.63007014675762</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>30.35326322360532</v>
+        <v>13.11935787290284</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>30.35326322360532</v>
+        <v>33.27196698667925</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>30.35326322360532</v>
+        <v>40.40463397110219</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>30.35326322360532</v>
+        <v>5.627393526939414</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>30.35326322360532</v>
+        <v>33.85966013625799</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>30.35326322360532</v>
+        <v>40.13759597270669</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>30.35326322360532</v>
+        <v>8.59486242893243</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>30.35326322360532</v>
+        <v>25.96338765772796</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>30.35326322360532</v>
+        <v>31.19009995712602</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>30.35326322360532</v>
+        <v>21.63757734432559</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>30.35326322360532</v>
+        <v>34.71775206216583</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>30.35326322360532</v>
+        <v>39.39504860605942</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>30.35326322360532</v>
+        <v>41.06379749143983</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>30.35326322360532</v>
+        <v>50.81583944144589</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>30.35326322360532</v>
+        <v>54.44865186891323</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>30.35326322360532</v>
+        <v>20.93422060460128</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>30.35326322360532</v>
+        <v>41.0875929899195</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>30.35326322360532</v>
+        <v>48.22174868047219</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>30.35326322360532</v>
+        <v>-14.32800710175079</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>30.35326322360532</v>
+        <v>13.89312021852507</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>30.35326322360532</v>
+        <v>20.16754423751823</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>30.35326322360532</v>
+        <v>-11.36190347741294</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>30.35326322360532</v>
+        <v>5.996273001692799</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>30.35326322360532</v>
+        <v>11.21995087735471</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>30.35326322360532</v>
+        <v>1.670671188090893</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.35326322360532</v>
+        <v>14.74158782706914</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>30.35326322360532</v>
+        <v>19.41599968386859</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>30.35326322360532</v>
+        <v>21.07784050291642</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>30.35326322360532</v>
+        <v>30.82363296033694</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>30.35326322360532</v>
+        <v>34.4544495029202</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>30.35326322360532</v>
+        <v>0.9596507993108219</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>30.35326322360532</v>
+        <v>21.09788314970675</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>30.35326322360532</v>
+        <v>28.23018649101633</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>30.35326322360532</v>
+        <v>-8.882766516076316</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>30.35326322360532</v>
+        <v>19.34493073643208</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>30.35326322360532</v>
+        <v>25.62163132982133</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>30.35326322360532</v>
+        <v>-5.922969757445202</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>30.35326322360532</v>
+        <v>11.44142276363485</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>30.35326322360532</v>
+        <v>16.6670324786642</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>30.35326322360532</v>
+        <v>7.116194710008386</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>30.35326322360532</v>
+        <v>20.1932362901106</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>30.35326322360532</v>
+        <v>24.86901978515962</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>30.35326322360532</v>
+        <v>26.53404252952376</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>30.35326322360532</v>
+        <v>36.2844170863257</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>30.35326322360532</v>
+        <v>39.91627163492515</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>30.35326322360532</v>
+        <v>6.410023551948626</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>30.35326322360532</v>
+        <v>26.559210202841</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>30.35326322360532</v>
+        <v>33.6918565498037</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>30.35326322360532</v>
+        <v>-1.079030428813866</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>30.35326322360532</v>
+        <v>27.1496414141632</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>30.35326322360532</v>
+        <v>33.42759259790571</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>30.35326322360532</v>
+        <v>1.886505942399737</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>30.35326322360532</v>
+        <v>19.25198360610696</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>30.35326322360532</v>
+        <v>24.47888925605392</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>30.35326322360532</v>
+        <v>14.92762308007516</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>30.35326322360532</v>
+        <v>28.00521764735711</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>30.35326322360532</v>
+        <v>32.68263860213827</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>30.35326322360532</v>
+        <v>34.35133499898532</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>30.35326322360532</v>
+        <v>44.10244504513233</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>30.35326322360532</v>
+        <v>47.73532025582793</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>30.35326322360532</v>
+        <v>14.22535346796511</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>30.35326322360532</v>
+        <v>34.37530338206435</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>30.35326322360532</v>
+        <v>41.50943825726191</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>30.35326322360532</v>
+        <v>-7.947516969878592</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>30.35326322360532</v>
+        <v>20.27485046534028</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>30.35326322360532</v>
+        <v>26.54978791440615</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>30.35326322360532</v>
+        <v>-4.979981000068818</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>30.35326322360532</v>
+        <v>12.37889442584188</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>30.35326322360532</v>
+        <v>17.60308008986399</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>30.35326322360532</v>
+        <v>8.053153650975474</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>30.35326322360532</v>
+        <v>21.12459977309246</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>30.35326322360532</v>
+        <v>25.79947477997931</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>30.35326322360532</v>
+        <v>27.46154924813735</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>30.35326322360532</v>
+        <v>37.208004640582</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>30.35326322360532</v>
+        <v>40.83901626953846</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>30.35326322360532</v>
+        <v>7.342651696765444</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>30.35326322360532</v>
+        <v>27.48168260232151</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>30.35326322360532</v>
+        <v>34.61457871596477</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>30.35326322360532</v>
+        <v>-2.504982595803284</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>30.35326322360532</v>
+        <v>25.72395481807283</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>30.35326322360532</v>
+        <v>32.00116887616176</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>30.35326322360532</v>
+        <v>0.456246199199569</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>30.35326322360532</v>
+        <v>17.82133770446174</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>30.35326322360532</v>
+        <v>23.0474552192284</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>30.35326322360532</v>
+        <v>13.49597071130373</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>30.35326322360532</v>
+        <v>26.57354182457917</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>30.35326322360532</v>
+        <v>31.24978846567015</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>30.35326322360532</v>
+        <v>32.91504509920063</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>30.35326322360532</v>
+        <v>42.66608276081163</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>30.35326322360532</v>
+        <v>46.29813239312242</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>30.35326322360532</v>
+        <v>12.79031831131331</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>30.35326322360532</v>
+        <v>32.94030365948836</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>30.35326322360532</v>
+        <v>40.07354268040379</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>30.35326322360532</v>
+        <v>5.298248044997337</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>30.35326322360532</v>
+        <v>33.52816003628348</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.35326322360532</v>
+        <v>39.80662478429102</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>30.35326322360532</v>
+        <v>8.265216748701306</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>30.35326322360532</v>
+        <v>25.63139338006309</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>30.35326322360532</v>
+        <v>30.85880692094511</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>30.35326322360532</v>
+        <v>21.30689396159531</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>30.35326322360532</v>
+        <v>34.38501803148907</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>30.35326322360532</v>
+        <v>39.06290224275349</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>30.35326322360532</v>
+        <v>40.73183274572742</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>30.35326322360532</v>
+        <v>50.4836059377424</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>30.35326322360532</v>
+        <v>54.1166762783071</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>30.35326322360532</v>
+        <v>20.60514327878471</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>30.35326322360532</v>
+        <v>40.75589190371673</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>30.35326322360532</v>
+        <v>47.89061959008612</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>30.35326322360532</v>
+        <v>-2.160676536937757</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>30.35326322360532</v>
+        <v>26.06184397051689</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>30.35326322360532</v>
+        <v>32.33627999143837</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>30.35326322360532</v>
+        <v>0.8077476362241498</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>30.35326322360532</v>
+        <v>18.16724367091197</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>30.35326322360532</v>
+        <v>23.39087014186785</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>30.35326322360532</v>
+        <v>13.84132918878871</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>30.35326322360532</v>
+        <v>26.91329279330787</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>30.35326322360532</v>
+        <v>31.58773874472993</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>30.35326322360532</v>
+        <v>33.24944386691575</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>30.35326322360532</v>
+        <v>42.99548805010343</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>30.35326322360532</v>
+        <v>46.62628293124888</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>30.35326322360532</v>
+        <v>13.12992404320133</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>30.35326322360532</v>
+        <v>33.26936197995431</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>30.35326322360532</v>
+        <v>40.40179167461773</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>30.35326322360532</v>
+        <v>3.280685845016052</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>30.35326322360532</v>
+        <v>31.50977613720775</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>30.35326322360532</v>
+        <v>37.78648855548423</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>30.35326322360532</v>
+        <v>6.242802896097174</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>30.35326322360532</v>
+        <v>23.60851477501788</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>30.35326322360532</v>
+        <v>28.83407290344863</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>30.35326322360532</v>
+        <v>19.28297423271763</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>30.35326322360532</v>
+        <v>32.36106260050659</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>30.35326322360532</v>
+        <v>37.03688003272876</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>30.35326322360532</v>
+        <v>38.70176746789937</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>30.35326322360532</v>
+        <v>48.45239360757208</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>30.35326322360532</v>
+        <v>52.08422641480686</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>30.35326322360532</v>
+        <v>18.57641863047596</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>30.35326322360532</v>
+        <v>38.72681071148762</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>30.35326322360532</v>
+        <v>45.85958314172311</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>30.35326322360532</v>
+        <v>11.08374256423807</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>30.35326322360532</v>
+        <v>39.31380736753661</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>30.35326322360532</v>
+        <v>45.59177047216329</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>30.35326322360532</v>
+        <v>14.05159916717915</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>30.35326322360532</v>
+        <v>31.41839611939739</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>30.35326322360532</v>
+        <v>36.64525026406753</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>30.35326322360532</v>
+        <v>27.09372317177352</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>30.35326322360532</v>
+        <v>40.17236445391794</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>30.35326322360532</v>
+        <v>44.84981944925883</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>30.35326322360532</v>
+        <v>46.51838051484881</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>30.35326322360532</v>
+        <v>56.269742205619</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>30.35326322360532</v>
+        <v>59.90259575739199</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>30.35326322360532</v>
+        <v>26.391069109028</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>30.35326322360532</v>
+        <v>46.54222442192932</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>30.35326322360532</v>
+        <v>53.67648548089747</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>30.35326322360532</v>
+        <v>-6.838549474409746</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>30.35326322360532</v>
+        <v>21.3860361402117</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>30.35326322360532</v>
+        <v>27.66044449586232</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>30.35326322360532</v>
+        <v>-3.870374832380065</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>30.35326322360532</v>
+        <v>13.49077647502511</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>30.35326322360532</v>
+        <v>18.71426303479259</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>30.35326322360532</v>
+        <v>9.163770776748407</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>30.35326322360532</v>
+        <v>22.23721104858956</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>30.35326322360532</v>
+        <v>26.91150624612069</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>30.35326322360532</v>
+        <v>28.57346145262889</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>30.35326322360532</v>
+        <v>38.32020602505352</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>30.35326322360532</v>
+        <v>41.9509143402959</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>30.35326322360532</v>
+        <v>8.451810155342656</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>30.35326322360532</v>
+        <v>28.59338692172437</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>30.35326322360532</v>
+        <v>35.72569432452215</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>30.35326322360532</v>
+        <v>-1.396924306062573</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>30.35326322360532</v>
+        <v>26.83423145130601</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>30.35326322360532</v>
+        <v>33.11091631623313</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>30.35326322360532</v>
+        <v>1.564943232758679</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>30.35326322360532</v>
+        <v>18.93231075297095</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>30.35326322360532</v>
+        <v>24.15772905845384</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>30.35326322360532</v>
+        <v>14.60567892810334</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>30.35326322360532</v>
+        <v>27.68524431724191</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>30.35326322360532</v>
+        <v>32.3609110472311</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>30.35326322360532</v>
+        <v>34.02604869320342</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>30.35326322360532</v>
+        <v>43.77737546771451</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>30.35326322360532</v>
+        <v>47.40912171026494</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>30.35326322360532</v>
+        <v>13.89856810412655</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>30.35326322360532</v>
+        <v>34.05109948802775</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>30.35326322360532</v>
+        <v>41.18374980489389</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>30.35326322360532</v>
+        <v>6.405913705831637</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>30.35326322360532</v>
+        <v>34.63804400353027</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>30.35326322360532</v>
+        <v>40.91597962974836</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>30.35326322360532</v>
+        <v>9.373521012511929</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>30.35326322360532</v>
+        <v>26.74197365275248</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>30.35326322360532</v>
+        <v>31.96868806839282</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>30.35326322360532</v>
+        <v>22.41620941971522</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>30.35326322360532</v>
+        <v>35.49632773909448</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>30.35326322360532</v>
+        <v>40.17363213737158</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>30.35326322360532</v>
+        <v>41.84244355103445</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>30.35326322360532</v>
+        <v>51.59450588548887</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>30.35326322360532</v>
+        <v>55.22727297386885</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>30.35326322360532</v>
+        <v>21.71300041210932</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>30.35326322360532</v>
+        <v>41.86629506026227</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>30.35326322360532</v>
+        <v>49.00043407624051</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-10.14703145005214</v>
+        <v>-10.14703144999757</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18.07595186196707</v>
+        <v>18.07595186193353</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24.35093955898586</v>
+        <v>24.35093955898597</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-7.180169049987711</v>
+        <v>-7.180169050024659</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10.17914967153163</v>
+        <v>10.17914967157233</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15.40337103592495</v>
+        <v>15.40337103593404</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.853326609654715</v>
+        <v>5.853326609699963</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>18.92512964335813</v>
+        <v>18.92512964334915</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.60003333961916</v>
+        <v>23.60003333965747</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.26208616462557</v>
+        <v>25.26208616470356</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35.00869912474676</v>
+        <v>35.00869912480962</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>38.6397849487619</v>
+        <v>38.63978494880726</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.142774690809603</v>
+        <v>5.142774690909192</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.28230157151611</v>
+        <v>25.28230157155318</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32.41523035941773</v>
+        <v>32.4152303594341</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-4.702349482563562</v>
+        <v>-4.702349482503649</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.52720404469179</v>
+        <v>23.52720404468485</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.80446840920459</v>
+        <v>29.80446840919743</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.741794377406762</v>
+        <v>-1.741794377414152</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15.62374065714303</v>
+        <v>15.62374065716895</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20.8498939294108</v>
+        <v>20.84989392942762</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>11.29829145529996</v>
+        <v>11.29829145532293</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>24.37621969796103</v>
+        <v>24.37621969796092</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.05249507341799</v>
+        <v>29.05249507342606</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.71773003775118</v>
+        <v>30.71773003774845</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>40.46892538895898</v>
+        <v>40.46892538899547</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>44.10104925194335</v>
+        <v>44.10104925195347</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>10.59258905930304</v>
+        <v>10.5925890593185</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>30.74307074833771</v>
+        <v>30.74307074833055</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>37.87634247152235</v>
+        <v>37.87634247152974</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3.101110573780517</v>
+        <v>3.101110573752322</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>31.33163870162005</v>
+        <v>31.33163870164563</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37.61015377809397</v>
+        <v>37.61015377810227</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6.067405694687551</v>
+        <v>6.067405694728933</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>23.43402588542475</v>
+        <v>23.43402588543577</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28.66147521115502</v>
+        <v>28.6614752112695</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>19.10944425586698</v>
+        <v>19.10944425583673</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>32.18792547682668</v>
+        <v>32.18792547682145</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>36.86583845151407</v>
+        <v>36.8658384514786</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>38.53474733976716</v>
+        <v>38.53474733976284</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>48.28667823393462</v>
+        <v>48.28667823401568</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>51.91982283677103</v>
+        <v>51.91982283682799</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>18.40764368614262</v>
+        <v>18.40764368614762</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>38.55888865415048</v>
+        <v>38.55888865419118</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>45.69364906218246</v>
+        <v>45.69364906223907</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-3.813482896442764</v>
+        <v>-3.813482896387058</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>24.41115009194303</v>
+        <v>24.41115009193734</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>30.68537706941314</v>
+        <v>30.68537706939358</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-0.844886567966995</v>
+        <v>-0.8448865679917787</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>16.51657835706717</v>
+        <v>16.51657835712481</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>21.73988011488089</v>
+        <v>21.73988011485349</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>12.18940633669629</v>
+        <v>12.18940633670289</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>25.26316983440259</v>
+        <v>25.26316983443897</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.93731582842659</v>
+        <v>29.93731582838021</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>31.59880158797594</v>
+        <v>31.59880158799231</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>41.34528203368657</v>
+        <v>41.3452820336868</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>44.976087909688</v>
+        <v>44.97608790969255</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>11.47664995702033</v>
+        <v>11.47664995702078</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.61833496804391</v>
+        <v>31.61833496806472</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.75052342334109</v>
+        <v>38.75052342343602</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1.627325062280335</v>
+        <v>1.627325062266237</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.85852801976446</v>
+        <v>29.85852801980982</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>36.13503147166946</v>
+        <v>36.13503147167845</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4.589613965070868</v>
+        <v>4.589613965006293</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>21.95729489179055</v>
+        <v>21.95729489179237</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>27.18252838076367</v>
+        <v>27.18252838075958</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>17.63049701025287</v>
+        <v>17.6304970102083</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>30.71038545326613</v>
+        <v>30.71038545325521</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>35.38590297023305</v>
+        <v>35.38590297017711</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>37.05057116481433</v>
+        <v>37.05057116478545</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>46.80163363969817</v>
+        <v>46.80163363967793</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>50.43347743863026</v>
+        <v>50.43347743860457</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>16.92259038603382</v>
+        <v>16.92259038601381</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>37.07522976530439</v>
+        <v>37.07522976530052</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>44.20776111957915</v>
+        <v>44.20776111952617</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>9.430724414862453</v>
+        <v>9.430724414893149</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>37.66290191696967</v>
+        <v>37.66290191700401</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>43.94065611612237</v>
+        <v>43.94065611613965</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>12.39875292895729</v>
+        <v>12.3987529289582</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.76751898819251</v>
+        <v>29.76751898820888</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>34.99404855633614</v>
+        <v>34.99404855629203</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>25.441588739742</v>
+        <v>25.44158873969653</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>38.52203012776582</v>
+        <v>38.52203012776673</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>43.19918529146153</v>
+        <v>43.19918529144334</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>44.86752704045014</v>
+        <v>44.86752704047561</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>54.61932508990711</v>
+        <v>54.6193250898888</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>58.2521897241202</v>
+        <v>58.2521897240637</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>24.73758374179991</v>
+        <v>24.73758374185152</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>44.89098641457886</v>
+        <v>44.89098641452713</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>52.02500643357249</v>
+        <v>52.02500643358147</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-5.176424897818464</v>
+        <v>-5.176424897860414</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23.04805147038135</v>
+        <v>23.04805147034793</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.32219825123141</v>
+        <v>29.32219825116252</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-2.208298059257316</v>
+        <v>-2.20829805935054</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>15.15296477035534</v>
+        <v>15.15296477035807</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>20.37616662212147</v>
+        <v>20.37616662206554</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.82597859407136</v>
+        <v>10.82597859410956</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>23.89951050343294</v>
+        <v>23.89951050347477</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.57359130168166</v>
+        <v>28.5735913016853</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>30.23518242591402</v>
+        <v>30.23518242596495</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>39.98162806080839</v>
+        <v>39.98162806083204</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>43.6123086931257</v>
+        <v>43.61230869312479</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>10.11329709770487</v>
+        <v>10.11329709771238</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>30.2547450798252</v>
+        <v>30.25474507981428</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37.38681278212474</v>
+        <v>37.38681278221296</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.2674790034223236</v>
+        <v>0.2674790034671162</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.49852546320099</v>
+        <v>28.49852546318576</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>34.77494870034289</v>
+        <v>34.77494870030196</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3.229298809729727</v>
+        <v>3.229298809692892</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>20.59677776873687</v>
+        <v>20.59677776871754</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>25.82191132747553</v>
+        <v>25.82191132740368</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>16.27016570014646</v>
+        <v>16.27016570014055</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.34982264953479</v>
+        <v>29.34982264946714</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>34.02527495279165</v>
+        <v>34.02527495276539</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>35.69004842376651</v>
+        <v>35.69004842373081</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>45.44107610702784</v>
+        <v>45.4410761069793</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>49.07279465283025</v>
+        <v>49.07279465273578</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>15.56233379801986</v>
+        <v>15.56233379796893</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>35.7147362530408</v>
+        <v>35.71473625304012</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>42.84714684591418</v>
+        <v>42.84714684586689</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>8.070987304776537</v>
+        <v>8.070987304807687</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.30300830317256</v>
+        <v>36.30300830315278</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>42.58068229122719</v>
+        <v>42.58068229124243</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>11.03854666728492</v>
+        <v>11.03854666724308</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>28.40711075429661</v>
+        <v>28.40711075431696</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>33.63354039998333</v>
+        <v>33.63354039998708</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>24.08136631860637</v>
+        <v>24.08136631859455</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>37.16157620673678</v>
+        <v>37.16157620675224</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>41.83866616221715</v>
+        <v>41.83866616222534</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>43.50711319728364</v>
+        <v>43.50711319724749</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>53.25887644447553</v>
+        <v>53.258876444452</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>56.89161583835053</v>
+        <v>56.89161583829971</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>23.3774360273292</v>
+        <v>23.37743602729668</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>43.5306017649215</v>
+        <v>43.53060176486898</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>50.6645010210249</v>
+        <v>50.66450102098943</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-12.9680680940597</v>
+        <v>-12.96806809405936</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>15.25426617992233</v>
+        <v>15.25426617993585</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>21.52902849874116</v>
+        <v>21.52902849869739</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-10.00161919676495</v>
+        <v>-10.00161919673585</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>7.357127287957752</v>
+        <v>7.357127287945019</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>12.58110101830712</v>
+        <v>12.58110101833441</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>3.031563986685825</v>
+        <v>3.031563986715838</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>16.10287862595638</v>
+        <v>16.10287862599549</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>20.77756557365379</v>
+        <v>20.77756557366561</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>22.43971049111045</v>
+        <v>22.43971049109135</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>32.18612154735038</v>
+        <v>32.1861215473464</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>35.81710077891162</v>
+        <v>35.81710077889241</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>2.321041762500073</v>
+        <v>2.321041762461874</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>22.45995898991296</v>
+        <v>22.45995898987442</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.59262709106534</v>
+        <v>29.59262709101588</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-7.524621514618019</v>
+        <v>-7.524621514596305</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>20.70428281821981</v>
+        <v>20.70428281821503</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>26.98132179325469</v>
+        <v>26.98132179324514</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-4.564479997220218</v>
+        <v>-4.564479997196457</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>12.80048263991526</v>
+        <v>12.80048263995721</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>18.02638827093861</v>
+        <v>18.02638827094214</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>8.475293223457385</v>
+        <v>8.47529322347512</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>21.5527329256943</v>
+        <v>21.55273292571874</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>26.22879155113836</v>
+        <v>26.22879155114757</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>27.89411860755538</v>
+        <v>27.89411860751514</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.64511198153232</v>
+        <v>37.64511198151027</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>41.27712923197365</v>
+        <v>41.27712923195432</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>7.769620473664673</v>
+        <v>7.769620473668311</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>27.91949226192312</v>
+        <v>27.9194922619121</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>35.05250331701271</v>
+        <v>35.05250331696257</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.2792846720178943</v>
+        <v>0.2792846720024329</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>28.50916361071862</v>
+        <v>28.50916361070952</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>34.78745328174821</v>
+        <v>34.78745328177641</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>3.245166059051627</v>
+        <v>3.24516605898728</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>20.61121385149809</v>
+        <v>20.6112138515098</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>25.83841551865649</v>
+        <v>25.83841551863546</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>16.28689206803213</v>
+        <v>16.28689206800894</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.36488475206093</v>
+        <v>29.36488475207366</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>34.04258095940023</v>
+        <v>34.04258095941319</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>35.71158184195272</v>
+        <v>35.71158184192635</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>45.46331073474678</v>
+        <v>45.46331073469483</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>49.09634871484539</v>
+        <v>49.09634871480731</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>15.58512103928823</v>
+        <v>15.5851210393121</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>35.73575610410811</v>
+        <v>35.73575610414653</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>42.87025581547553</v>
+        <v>42.87025581546189</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-4.050989033116906</v>
+        <v>-4.050989033096897</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>24.17254054620574</v>
+        <v>24.17254054623223</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>30.44729146423154</v>
+        <v>30.44729146425348</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-1.083599499531118</v>
+        <v>-1.083599499538849</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>16.27641113612233</v>
+        <v>16.27641113615576</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>21.50032945022352</v>
+        <v>21.50032945026899</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>11.95038304864832</v>
+        <v>11.95038304874814</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>25.02281197709138</v>
+        <v>25.0228119771588</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.69743900857114</v>
+        <v>29.69743900863855</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>31.35937012530579</v>
+        <v>31.35937012531102</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>41.10620537081061</v>
+        <v>41.10620537082073</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>44.73713375091918</v>
+        <v>44.73713375088633</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>11.23937378993222</v>
+        <v>11.23937378998633</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>31.37944003768044</v>
+        <v>31.37944003766111</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>38.51212474390869</v>
+        <v>38.51212474392324</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>1.39486986643081</v>
+        <v>1.394869866428763</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.62496955889506</v>
+        <v>29.62496955888631</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>35.90199703206136</v>
+        <v>35.90199703202509</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>4.355952186650512</v>
+        <v>4.355952186646647</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>21.72217903854235</v>
+        <v>21.72217903855372</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>26.94802914091034</v>
+        <v>26.94802914088169</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>17.39652494395753</v>
+        <v>17.39652494393502</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>30.47507898972847</v>
+        <v>30.47507898975746</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>35.1510775893876</v>
+        <v>35.15107758943932</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>36.81619089151675</v>
+        <v>36.81619089150675</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>46.56760846868181</v>
+        <v>46.56760846874741</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>50.19957481628242</v>
+        <v>50.19957481632892</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>16.69036522001309</v>
+        <v>16.69036522001764</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>36.84138609183131</v>
+        <v>36.84138609186417</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>43.97441366688216</v>
+        <v>43.9744136669332</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>9.196732717266769</v>
+        <v>9.196732717245851</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>37.42780695176387</v>
+        <v>37.42780695175307</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>43.70608517505187</v>
+        <v>43.70608517502379</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>12.16355482460065</v>
+        <v>12.16355482463112</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.53086677115814</v>
+        <v>29.53086677117099</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>34.75801295802606</v>
+        <v>34.75801295806232</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>25.20608026201356</v>
+        <v>25.20608026196513</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>38.28518723517689</v>
+        <v>38.28518723516439</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>42.96282347240347</v>
+        <v>42.96282347238983</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>44.63161064442855</v>
+        <v>44.63161064445697</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>54.38376378136073</v>
+        <v>54.38376378139813</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>58.01675087980735</v>
+        <v>58.01675087981701</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>24.5038223416698</v>
+        <v>24.50382234171846</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>44.65560648608928</v>
+        <v>44.65560648606632</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>51.7901227776579</v>
+        <v>51.79012277765267</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.3369685858333753</v>
+        <v>0.3369685857478828</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>28.5596835248264</v>
+        <v>28.55968352481185</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>34.83337736931301</v>
+        <v>34.83337736931028</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>3.305197861513108</v>
+        <v>3.305197861536527</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>20.66563174333751</v>
+        <v>20.66563174338185</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>25.88844545540829</v>
+        <v>25.88844545550538</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>16.33887425244055</v>
+        <v>16.33887425245192</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.41184335574533</v>
+        <v>29.4118433558215</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>34.08554548989812</v>
+        <v>34.08554548990472</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>35.74676524949339</v>
+        <v>35.74676524947043</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>45.4929027365238</v>
+        <v>45.49290273656564</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>49.12330388366857</v>
+        <v>49.12330388373496</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>15.62621444679237</v>
+        <v>15.62621444690697</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>35.76632610976915</v>
+        <v>35.76632610981463</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>42.89793347526486</v>
+        <v>42.89793347531034</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>5.785261206821616</v>
+        <v>5.785261206790693</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>34.01454572073013</v>
+        <v>34.01454572072808</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>40.29051580730007</v>
+        <v>40.29051580728256</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>8.747183861735067</v>
+        <v>8.747183861688001</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>26.11383341845604</v>
+        <v>26.11383341841125</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>31.33857864557686</v>
+        <v>31.33857864554844</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>21.78745021881562</v>
+        <v>21.78745021884245</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>34.86654391576306</v>
+        <v>34.86654391575203</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>39.54161739585973</v>
+        <v>39.54161739584961</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>41.20601911446491</v>
+        <v>41.20601911446855</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>50.95673837992652</v>
+        <v>50.95673837994448</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>54.5881773531394</v>
+        <v>54.58817735312303</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>21.07963950490696</v>
+        <v>21.07963950488787</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>41.23070487450209</v>
+        <v>41.23070487450937</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>48.36265504974622</v>
+        <v>48.36265504979261</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>13.58500180178774</v>
+        <v>13.58500180180388</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>41.81526069711575</v>
+        <v>41.81526069709199</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>48.09248142922527</v>
+        <v>48.09248142919787</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>16.55266329511258</v>
+        <v>16.55266329511213</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>33.9203977892453</v>
+        <v>33.92039778922347</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>39.14643897732643</v>
+        <v>39.14643897733643</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.59488218340451</v>
+        <v>29.59488218341178</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>42.67452870884213</v>
+        <v>42.67452870886009</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>47.35123969883867</v>
+        <v>47.35123969881252</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>49.0193148228482</v>
+        <v>49.01931482282637</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>58.77076962034019</v>
+        <v>58.77076962029176</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>62.40322930765572</v>
+        <v>62.40322930758046</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.89097288290239</v>
+        <v>28.89097288290853</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>49.04280144498924</v>
+        <v>49.04280144500584</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>56.1762401740605</v>
+        <v>56.17624017407937</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-12.36396153102109</v>
+        <v>-12.36396153099744</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>15.85693146212114</v>
+        <v>15.8569314621466</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>22.131096996146</v>
+        <v>22.13109699613963</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-9.397146327874196</v>
+        <v>-9.397146327916033</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>7.96116404769819</v>
+        <v>7.961164047737071</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>13.18461400770516</v>
+        <v>13.18461400774041</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>3.635313219029086</v>
+        <v>3.635313218974972</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>16.70637477285553</v>
+        <v>16.70637477283165</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>21.38064308557185</v>
+        <v>21.38064308558936</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>23.04227773641927</v>
+        <v>23.04227773632536</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.78780951184538</v>
+        <v>32.78780951179809</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>36.41846581113126</v>
+        <v>36.41846581112853</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>2.923789899644845</v>
+        <v>2.923789899683044</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>23.06209625911973</v>
+        <v>23.06209625920522</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>30.19411703426798</v>
+        <v>30.19411703428798</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-6.916299850127047</v>
+        <v>-6.916299850119884</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>21.31116299430792</v>
+        <v>21.31116299428768</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>27.58760501913017</v>
+        <v>27.58760501913994</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-3.955791126925504</v>
+        <v>-3.955791126968819</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>13.4087351852485</v>
+        <v>13.40873518518916</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>18.63411694681091</v>
+        <v>18.63411694676429</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9.083258303659505</v>
+        <v>9.083258303700887</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>22.16044468001203</v>
+        <v>22.16044467994644</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>26.83608460931603</v>
+        <v>26.83608460932592</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.50090095968179</v>
+        <v>28.50090095968906</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>38.251014610353</v>
+        <v>38.25101461042189</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>41.88270891059008</v>
+        <v>41.88270891060645</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>8.376583890592457</v>
+        <v>8.376583890617013</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>28.52584433319103</v>
+        <v>28.52584433322741</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>35.6582080929326</v>
+        <v>35.65820809292441</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>0.8871651355707684</v>
+        <v>0.8871651355960068</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.11560248704657</v>
+        <v>29.11560248698461</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>35.39329508878885</v>
+        <v>35.39329508879419</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>3.853413137390163</v>
+        <v>3.853413137378794</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>21.21902452015868</v>
+        <v>21.21902452018415</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>26.44570218868287</v>
+        <v>26.44570218872198</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>16.89441520137737</v>
+        <v>16.89441520136282</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.97215451368962</v>
+        <v>29.97215451366392</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>34.64943187590112</v>
+        <v>34.64943187592954</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>36.31792171437158</v>
+        <v>36.31792171443706</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>46.06877085430872</v>
+        <v>46.06877085442764</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>49.70148583397307</v>
+        <v>49.7014858340597</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>16.19164222840871</v>
+        <v>16.1916422284294</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>36.34166584694984</v>
+        <v>36.34166584699554</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>43.4755181031276</v>
+        <v>43.47551810318103</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-15.89602728351448</v>
+        <v>-15.89602728350391</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>12.32706775507828</v>
+        <v>12.32706775513216</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>18.60186610126371</v>
+        <v>18.60186610127167</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-12.92905092618432</v>
+        <v>-12.92905092620353</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>4.430490898075988</v>
+        <v>4.43049089809395</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>9.65443787378743</v>
+        <v>9.654437873812668</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>0.1042356922889951</v>
+        <v>0.1042356922710326</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>13.17623926237948</v>
+        <v>13.17623926241643</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>17.85092177737911</v>
+        <v>17.85092177746517</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>19.51329977423828</v>
+        <v>19.51329977421736</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.2599966152699</v>
+        <v>29.25999661524261</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>32.89101980595356</v>
+        <v>32.89101980593856</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-0.606283482437874</v>
+        <v>-0.6062834824108165</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>19.53340942233345</v>
+        <v>19.53340942230787</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>26.66609896749847</v>
+        <v>26.66609896748676</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-10.45258342152189</v>
+        <v>-10.45258342143174</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>17.77708168663096</v>
+        <v>17.77708168665495</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>24.05415664910973</v>
+        <v>24.05415664912735</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-7.491914350003157</v>
+        <v>-7.491914350054543</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>9.873843633835492</v>
+        <v>9.87384363379195</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>15.09972245723125</v>
+        <v>15.0997224572657</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>5.547962402332388</v>
+        <v>5.547962402377408</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>18.62609104331298</v>
+        <v>18.62609104330912</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>23.30214519244308</v>
+        <v>23.30214519247673</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>24.96770543818437</v>
+        <v>24.96770543814503</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>34.71898458468368</v>
+        <v>34.71898458470471</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>38.3510457917686</v>
+        <v>38.35104579177508</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>4.842292823496592</v>
+        <v>4.842292823498866</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>24.99294032200433</v>
+        <v>24.99294032199933</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>32.12597279071011</v>
+        <v>32.1259727907408</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-2.649721890931772</v>
+        <v>-2.649721890880841</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>25.58091781278736</v>
+        <v>25.58091781282738</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>31.85924351724103</v>
+        <v>31.85924351732106</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>0.316687038065794</v>
+        <v>0.3166870380269131</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>17.68353018061683</v>
+        <v>17.68353018061399</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>22.91070508209421</v>
+        <v>22.91070508205658</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>13.3585165156949</v>
+        <v>13.35851651569126</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>26.43719813863018</v>
+        <v>26.43719813872465</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>31.1148899139495</v>
+        <v>31.11488991400486</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>32.7841239773575</v>
+        <v>32.78412397733408</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>42.53613870909979</v>
+        <v>42.53613870919358</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>46.16922065855854</v>
+        <v>46.16922065856571</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>12.65674870096294</v>
+        <v>12.65674870095748</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>32.80815952286028</v>
+        <v>32.80815952281242</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>39.94268068438194</v>
+        <v>39.9426806843675</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>2.097337509053915</v>
+        <v>2.097337509058235</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>30.3213620049859</v>
+        <v>30.32136200496112</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>36.59547156726458</v>
+        <v>36.59547156727163</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>5.066852074081027</v>
+        <v>5.066852074035779</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>22.42817657530648</v>
+        <v>22.42817657529682</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>27.65141054391918</v>
+        <v>27.65141054393635</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>18.10115425540019</v>
+        <v>18.10115425536154</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>31.17480693251665</v>
+        <v>31.17480693252654</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>35.8489505356778</v>
+        <v>35.84895053562471</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>37.51037770614246</v>
+        <v>37.51037770609676</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>47.25669421636431</v>
+        <v>47.25669421637511</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>50.88731128904774</v>
+        <v>50.88731128903262</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>17.38908244416305</v>
+        <v>17.38908244415873</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>37.53027030325043</v>
+        <v>37.5302703032302</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>44.66235918282396</v>
+        <v>44.66235918278099</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>7.537885149473624</v>
+        <v>7.537885149495452</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>35.76847936853281</v>
+        <v>35.76847936859068</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>42.04486516891441</v>
+        <v>42.04486516896137</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>10.50109241846283</v>
+        <v>10.50109241847375</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>27.86863270723646</v>
+        <v>27.86863270724533</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>33.09379816590766</v>
+        <v>33.09379816588901</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>23.54198452415338</v>
+        <v>23.5419845242109</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>36.62176192469568</v>
+        <v>36.62176192470795</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>41.29727685798665</v>
+        <v>41.29727685801006</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>42.96188644097313</v>
+        <v>42.96188644100496</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>52.71278481911943</v>
+        <v>52.71278481913126</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>56.34443973265027</v>
+        <v>56.34443973262572</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>22.83476226693713</v>
+        <v>22.83476226692667</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>42.98690416949913</v>
+        <v>42.98690416950845</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>50.11933569186786</v>
+        <v>50.11933569186581</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>15.3400513826048</v>
+        <v>15.34005138258297</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.57162007317132</v>
+        <v>43.57162007321838</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>49.84925658995238</v>
+        <v>49.84925658998307</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>18.3089980925661</v>
+        <v>18.30899809254382</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>35.67762343090342</v>
+        <v>35.67762343095151</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>40.90408492993336</v>
+        <v>40.90408492997167</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>31.35184276737962</v>
+        <v>31.35184276731755</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>44.4321730666077</v>
+        <v>44.43217306656962</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>49.10932558967718</v>
+        <v>49.1093255896325</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>50.77760868990393</v>
+        <v>50.77760868984959</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>60.5292426409566</v>
+        <v>60.52924264091737</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>64.16191832965606</v>
+        <v>64.16191832965845</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>30.64852202631121</v>
+        <v>30.64852202636328</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>50.80142717937852</v>
+        <v>50.80142717934169</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>57.93534735177505</v>
+        <v>57.93534735174663</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-18.18847217712911</v>
+        <v>-18.18847217708534</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>10.03227470801679</v>
+        <v>10.03227470801747</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>16.30632300002029</v>
+        <v>16.30632299997959</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-15.22200328418293</v>
+        <v>-15.22200328412018</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>2.136170654126573</v>
+        <v>2.136170654158406</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>7.359470070068966</v>
+        <v>7.359470070035087</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-2.190038657490021</v>
+        <v>-2.190038657481722</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>10.88097893109355</v>
+        <v>10.88097893110253</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>15.55506257640494</v>
+        <v>15.55506257633934</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>17.21668264007602</v>
+        <v>17.21668264011922</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>26.96202296943866</v>
+        <v>26.96202296943298</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>30.59277148723086</v>
+        <v>30.59277148723905</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-2.902039776114265</v>
+        <v>-2.902039776060718</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>17.2363579989873</v>
+        <v>17.23635799900651</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>24.36823958810319</v>
+        <v>24.36823958811854</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-12.74370242929862</v>
+        <v>-12.74370242931806</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>15.48361420478571</v>
+        <v>15.48361420478093</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>21.7599390613598</v>
+        <v>21.7599390613623</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-9.783539976147352</v>
+        <v>-9.78353997612632</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>7.580849796951753</v>
+        <v>7.58084979700871</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>12.80608108515779</v>
+        <v>12.80608108516131</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>3.255014313564544</v>
+        <v>3.25501431358046</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>16.33215663576098</v>
+        <v>16.33215663573756</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>21.00761196435215</v>
+        <v>21.00761196436125</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>22.67241380091721</v>
+        <v>22.67241380090266</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>32.42233593371137</v>
+        <v>32.42233593363144</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>36.05412246522386</v>
+        <v>36.05412246512006</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>2.547862277681844</v>
+        <v>2.547862277648875</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>22.69721393079604</v>
+        <v>22.69721393074977</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.8294386850886</v>
+        <v>29.82943868514488</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-4.939763161996979</v>
+        <v>-4.939763162006869</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>23.28852797874825</v>
+        <v>23.28852797877451</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.56610342346895</v>
+        <v>29.56610342348566</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-1.973861501905247</v>
+        <v>-1.973861501862046</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>15.39161334910651</v>
+        <v>15.39161334908013</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>20.61814057137772</v>
+        <v>20.61814057134839</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>11.06664550131566</v>
+        <v>11.0666455013459</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>24.14434075575676</v>
+        <v>24.14434075575437</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>28.82143353874565</v>
+        <v>28.82143353872553</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>30.48990875764619</v>
+        <v>30.48990875765028</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>40.24056635518016</v>
+        <v>40.240566355075</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>43.87337361049802</v>
+        <v>43.87337361044698</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>10.36339492534924</v>
+        <v>10.36339492532196</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>30.5135097509017</v>
+        <v>30.51350975085975</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>37.64722299546273</v>
+        <v>37.64722299548967</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-7.508957326390913</v>
+        <v>-7.508957326406943</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>20.71430954095175</v>
+        <v>20.71430954095163</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>26.9881450387509</v>
+        <v>26.98814503874897</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-4.541731659593182</v>
+        <v>-4.541731659512692</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>12.81869007698177</v>
+        <v>12.81869007701985</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>18.04159144901067</v>
+        <v>18.04159144899054</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>8.491918000440165</v>
+        <v>8.491918000394236</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>21.56480658667604</v>
+        <v>21.56480658668229</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>26.23857734073502</v>
+        <v>26.23857734076378</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>27.9000699536862</v>
+        <v>27.90006995370734</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>37.64623434222429</v>
+        <v>37.64623434225021</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>41.27677400804558</v>
+        <v>41.27677400804149</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>7.778935383162462</v>
+        <v>7.778935383243862</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>27.9194270474533</v>
+        <v>27.91942704751435</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>35.0511229857249</v>
+        <v>35.05112298574275</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-2.060853896818998</v>
+        <v>-2.06085389685822</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>26.16898288215341</v>
+        <v>26.16898288222129</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>32.44509481836192</v>
+        <v>32.44509481834362</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>0.9000652101820208</v>
+        <v>0.9000652101767912</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>18.2667029170739</v>
+        <v>18.2667029170556</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>23.49153599365152</v>
+        <v>23.49153599359502</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>13.94030503902107</v>
+        <v>13.94030503901789</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>27.01931850130794</v>
+        <v>27.019318501257</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>31.69446076212742</v>
+        <v>31.69446076213833</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>33.35913541233438</v>
+        <v>33.35913541231278</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>43.1098817313796</v>
+        <v>43.10988173142337</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>46.74145928895362</v>
+        <v>46.74145928890553</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>13.23217167532201</v>
+        <v>13.23217167527881</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>33.38361744350962</v>
+        <v>33.3836174435169</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>40.51565637467732</v>
+        <v>40.51565637463753</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>5.741556383307426</v>
+        <v>5.741556383301059</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>33.97236765276037</v>
+        <v>33.97236765275127</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>40.24973028903949</v>
+        <v>40.24973028907496</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>8.70821465056045</v>
+        <v>8.708214650512701</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>26.07593742631551</v>
+        <v>26.07593742634199</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.30206653557369</v>
+        <v>31.30206653558267</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>21.75040720835753</v>
+        <v>21.75040720838663</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>34.82997357489072</v>
+        <v>34.82997357494165</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>39.50675342826995</v>
+        <v>39.50675342828086</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>41.17510149425678</v>
+        <v>41.17510149424655</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>50.92658334467015</v>
+        <v>50.92658334467436</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>54.55918170860869</v>
+        <v>54.55918170861881</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>21.04617532438581</v>
+        <v>21.04617532436149</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>41.19838434381089</v>
+        <v>41.19838434381589</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>48.33191186846719</v>
+        <v>48.33191186840193</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-18.31730735128596</v>
+        <v>-18.31730735124128</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>9.904589751511622</v>
+        <v>9.904589751528221</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>16.17853769649699</v>
+        <v>16.17853769649562</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-15.35086703483827</v>
+        <v>-15.35086703484669</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>2.008047716619586</v>
+        <v>2.008047716589914</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>7.231114538352159</v>
+        <v>7.231114538356138</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-2.318088030864914</v>
+        <v>-2.318088030863095</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>10.75346718237691</v>
+        <v>10.75346718237293</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>15.42740935613622</v>
+        <v>15.42740935613975</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>17.08906665969019</v>
+        <v>17.08906665967109</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>26.83458061369529</v>
+        <v>26.83458061365255</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>30.46524842790396</v>
+        <v>30.46524842784029</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-3.030537822324931</v>
+        <v>-3.0305378223471</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>17.10849181905726</v>
+        <v>17.10849181904442</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>24.24027884644832</v>
+        <v>24.24027884641819</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-12.87668264878502</v>
+        <v>-12.87668264875967</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>15.35178424600602</v>
+        <v>15.35178424602796</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>21.6280087792002</v>
+        <v>21.62800877924397</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-9.916549383641467</v>
+        <v>-9.916549383579621</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>7.448581189189923</v>
+        <v>7.448581189209932</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>12.6735798835654</v>
+        <v>12.67357988356153</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>3.122819407240314</v>
+        <v>3.122819407214621</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>16.20049937182776</v>
+        <v>16.20049937181332</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>20.87581321899907</v>
+        <v>20.8758132190035</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>22.54065276530153</v>
+        <v>22.54065276532791</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>32.29074859505366</v>
+        <v>32.29074859509731</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>35.92245440598597</v>
+        <v>35.92245440597051</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>2.41521923014696</v>
+        <v>2.415219230126496</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>22.56520292719338</v>
+        <v>22.56520292718383</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.69733302166074</v>
+        <v>29.69733302164073</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-5.070265783962753</v>
+        <v>-5.070265783923077</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>23.15917572482934</v>
+        <v>23.15917572486856</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.43665087990465</v>
+        <v>29.4366508799541</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-2.104393139159328</v>
+        <v>-2.104393139131133</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>15.26182261876673</v>
+        <v>15.26182261878844</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>20.48811727828254</v>
+        <v>20.4881172783079</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>10.93692860201648</v>
+        <v>10.93692860199556</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>24.01516157956397</v>
+        <v>24.0151615795676</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>28.69211294083655</v>
+        <v>28.69211294077289</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>30.36062585604694</v>
+        <v>30.36062585603966</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>40.1114571847493</v>
+        <v>40.11145718478761</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>43.74418376929091</v>
+        <v>43.74418376924555</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>10.23322975323597</v>
+        <v>10.23322975325144</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>30.38397674031367</v>
+        <v>30.38397674025819</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>37.51759536578211</v>
+        <v>37.51759536573846</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-24.6134358333446</v>
+        <v>-24.61343583334096</v>
       </c>
     </row>
     <row r="543">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>9.880477480775568</v>
+        <v>9.880477480820133</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-21.64770937109742</v>
+        <v>-21.64770937109878</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-4.290011169700932</v>
+        <v>-4.290011169684107</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>0.9327123850810324</v>
+        <v>0.932712385120368</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-8.615929451341771</v>
+        <v>-8.615929451320966</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>4.454621537540135</v>
+        <v>4.454621537559348</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>9.12823381702313</v>
+        <v>9.128233817064171</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>10.79014459588964</v>
+        <v>10.79014459588419</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>20.535240405113</v>
+        <v>20.53524040508924</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>24.16577009005348</v>
+        <v>24.16577009006156</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-9.328213375480317</v>
+        <v>-9.328213375478953</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>10.80951726154731</v>
+        <v>10.80951726150877</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>17.94087961754181</v>
+        <v>17.94087961756193</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-19.17118338851216</v>
+        <v>-19.17118338852273</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>9.055719195521334</v>
+        <v>9.055719195544185</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>15.33157603809448</v>
+        <v>15.33157603805185</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-16.21176370009991</v>
+        <v>-16.21176370001805</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>1.152150103483365</v>
+        <v>1.15215010354521</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>6.376805512790071</v>
+        <v>6.376805512786433</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-3.173394163771462</v>
+        <v>-3.173394163791926</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>9.90328136342751</v>
+        <v>9.90328136341364</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>14.57826530656067</v>
+        <v>14.57826530651792</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>16.2433581025123</v>
+        <v>16.24335810252731</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.99303564271978</v>
+        <v>25.99303564276843</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.62460329276169</v>
+        <v>29.6246032927335</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-3.8808288021838</v>
+        <v>-3.880828802191076</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>16.26785546364229</v>
+        <v>16.26785546365684</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>23.39956094727248</v>
+        <v>23.39956094722882</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-11.36522109084555</v>
+        <v>-11.36522109077109</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>16.86265607092835</v>
+        <v>16.86265607093642</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>23.13976348943314</v>
+        <v>23.13976348951579</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-8.400062279419643</v>
+        <v>-8.400062279375078</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>8.96493667180178</v>
+        <v>8.964936671845663</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>14.19088799479871</v>
+        <v>14.19088799473164</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>4.640260165854698</v>
+        <v>4.640260165848105</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>17.71748868876912</v>
+        <v>17.71748868879925</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>22.39411008160269</v>
+        <v>22.39411008159098</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>24.06287608565643</v>
+        <v>24.06287608566006</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>33.8132890818321</v>
+        <v>33.81328908188667</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>37.44587746401672</v>
+        <v>37.44587746406583</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>3.93672671900211</v>
+        <v>3.936726719044856</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>24.08617424271316</v>
+        <v>24.08617424268769</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>31.21936817718066</v>
+        <v>31.21936817723113</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-10.14265034835691</v>
+        <v>-10.14265034837544</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>18.08032923992064</v>
+        <v>18.08032923991451</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>24.35514693244082</v>
+        <v>24.3551469324324</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-7.176193732373321</v>
+        <v>-7.176193732359792</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>10.18310844086434</v>
+        <v>10.18310844088958</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>15.40712484142412</v>
+        <v>15.4071248414821</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>5.857541268877895</v>
+        <v>5.857541268889037</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>18.92933844513109</v>
+        <v>18.92933844512802</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>23.60408568539802</v>
+        <v>23.60408568546953</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>25.26613403163336</v>
+        <v>25.2661340316379</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>35.01261263005986</v>
+        <v>35.01261263016173</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>38.6435948916666</v>
+        <v>38.64359489168797</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>5.146879196551737</v>
+        <v>5.146879196555147</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>25.2863814925303</v>
+        <v>25.28638149251927</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>32.41911625692424</v>
+        <v>32.41911625699984</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-4.702271180316501</v>
+        <v>-4.702271180262727</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>23.52727850656677</v>
+        <v>23.52727850661623</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.80437283590575</v>
+        <v>29.80437283597431</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-1.742122060732385</v>
+        <v>-1.742122060745572</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>15.62339628806708</v>
+        <v>15.62339628803628</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>20.84934456925308</v>
+        <v>20.84934456928207</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>11.29820291203626</v>
+        <v>11.29820291208492</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>24.37612516871835</v>
+        <v>24.37612516874358</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.0522440631137</v>
+        <v>29.05224406314736</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>30.71747482969457</v>
+        <v>30.71747482974618</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>40.46853573057106</v>
+        <v>40.46853573058846</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>44.10055600511933</v>
+        <v>44.10055600518766</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>10.59239069502544</v>
+        <v>10.59239069502408</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>30.74284765281791</v>
+        <v>30.74284765284929</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>37.87592533766761</v>
+        <v>37.87592533770012</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>3.102491783680335</v>
+        <v>3.102491783665783</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>31.33301609002038</v>
+        <v>31.33301609003493</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>37.61136115059858</v>
+        <v>37.61136115062405</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>6.068380877109377</v>
+        <v>6.068380877106875</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>23.43498440008628</v>
+        <v>23.43498440009435</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.66222875568681</v>
+        <v>28.66222875570739</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>19.11065868260292</v>
+        <v>19.11065868267386</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>32.18913393373433</v>
+        <v>32.18913393376695</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>36.86689045265999</v>
+        <v>36.86689045273172</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>38.53579502559163</v>
+        <v>38.53579502563369</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>48.28759147215172</v>
+        <v>48.28759147217639</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>51.92063250794402</v>
+        <v>51.92063250799302</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>18.40874815638702</v>
+        <v>18.4087481564616</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>38.55996840817059</v>
+        <v>38.55996840819185</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>45.69453479075108</v>
+        <v>45.69453479076211</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-6.609216872492283</v>
+        <v>-6.609216872454198</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>21.61375576931849</v>
+        <v>21.61375576932133</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>27.88779314650495</v>
+        <v>27.88779314649847</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-3.64137862062509</v>
+        <v>-3.641378620591439</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>13.71871797878296</v>
+        <v>13.71871797879388</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>18.9418980754015</v>
+        <v>18.94189807539672</v>
       </c>
     </row>
     <row r="638">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>22.46472221834975</v>
+        <v>22.46472221835714</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>27.13871707130662</v>
+        <v>27.13871707122374</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.80023770378196</v>
+        <v>28.80023770381811</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>38.54619982203943</v>
+        <v>38.54619982202476</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>42.17691056295601</v>
+        <v>42.17691056291861</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>8.679325548999969</v>
+        <v>8.679325549009519</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.81970340942715</v>
+        <v>28.8197034093736</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>35.95162037236744</v>
+        <v>35.95162037230662</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-1.168706907771565</v>
+        <v>-1.168706907751556</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>27.06083552385658</v>
+        <v>27.06083552389285</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>33.33714940069527</v>
+        <v>33.3371494006615</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>1.792824284544878</v>
+        <v>1.792824284508498</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>19.15913671866477</v>
+        <v>19.15913671870842</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>24.38424859751197</v>
+        <v>24.38424859751925</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>14.83285769080479</v>
+        <v>14.83285769077182</v>
       </c>
     </row>
     <row r="654">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>32.58700615103569</v>
+        <v>32.58700615104661</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.25170899411071</v>
+        <v>34.25170899409616</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>44.00225299561535</v>
+        <v>44.00225299556806</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>47.63400167445744</v>
+        <v>47.63400167443925</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>14.1249678348436</v>
+        <v>14.12496783481154</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>34.27629969376542</v>
+        <v>34.27629969371824</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>41.40855969331349</v>
+        <v>41.40855969325222</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>6.634943394374915</v>
+        <v>6.634943394382873</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>34.86546035002928</v>
+        <v>34.86546035007669</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>41.14302492170489</v>
+        <v>41.14302492173502</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>9.602214023565949</v>
+        <v>9.602214023589141</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>26.96961156211992</v>
+        <v>26.96961156215949</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>32.19601947380934</v>
+        <v>32.19601947381844</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>22.64420017301453</v>
+        <v>22.64420017297178</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>35.72353513114084</v>
+        <v>35.72353513112628</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>40.40053914557964</v>
+        <v>40.400539145576</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>42.06891542793622</v>
+        <v>42.0689154278671</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>51.82019495015382</v>
+        <v>51.82019495016132</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>55.45296443071564</v>
+        <v>55.45296443077407</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>21.94021182280088</v>
+        <v>21.94021182280724</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>42.09230693674058</v>
+        <v>42.09230693667874</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>49.22605553345502</v>
+        <v>49.22605553349527</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>-2.826237139159019</v>
+        <v>-2.826237139141853</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>25.39846031946868</v>
+        <v>25.39846031941047</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>31.67343904105942</v>
+        <v>31.67343904107921</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>0.1418876081907285</v>
+        <v>0.1418876082052805</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>17.50282708391003</v>
+        <v>17.50282708396642</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>22.72696432067031</v>
+        <v>22.72696432059936</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>13.17636467163587</v>
+        <v>13.17636467164587</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>26.24956093316885</v>
+        <v>26.24956093320841</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>30.92442130828638</v>
+        <v>30.92442130829571</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.58634707481772</v>
+        <v>32.58634707485047</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>42.33342107221929</v>
+        <v>42.33342107220201</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>45.96448502061858</v>
+        <v>45.96448502064382</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>12.46541350423357</v>
+        <v>12.465413504189</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>32.60656258147654</v>
+        <v>32.60656258149268</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>39.73954231302312</v>
+        <v>39.73954231303222</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>2.616182760038129</v>
+        <v>2.616182760034491</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>30.84745044718514</v>
+        <v>30.84745044717457</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>37.12470574339503</v>
+        <v>37.12470574342083</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>5.577999868479566</v>
+        <v>5.577999868513672</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>22.94515565650082</v>
+        <v>22.94515565648217</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.17122468770063</v>
+        <v>28.17122468768972</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>18.61906722062034</v>
+        <v>18.61906722063944</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>31.69838870984054</v>
+        <v>31.69838870985328</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>36.37462065394621</v>
+        <v>36.3746206539353</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>38.03972884051407</v>
+        <v>38.03972884047383</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>47.79138525630734</v>
+        <v>47.79138525632564</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>51.42348718063263</v>
+        <v>51.42348718061797</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>17.91296584260684</v>
+        <v>17.9129658426107</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>38.06506980291354</v>
+        <v>38.06506980288466</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>45.19839233592464</v>
+        <v>45.1983923359501</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>10.41894218579844</v>
+        <v>10.41894218582868</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>38.65118445386159</v>
+        <v>38.65118445389092</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>44.92969052667084</v>
+        <v>44.92969052668107</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>13.3864993835962</v>
+        <v>13.38649938361417</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>30.75474031633533</v>
+        <v>30.75474031628758</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>35.98210546042858</v>
+        <v>35.98210546039584</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>26.42951944041809</v>
+        <v>26.42951944044538</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>39.50939388732823</v>
+        <v>39.50939388732277</v>
       </c>
     </row>
     <row r="715">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>45.85604565007591</v>
+        <v>45.85604565006682</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>55.60843764826544</v>
+        <v>55.60843764830102</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>59.24156036146954</v>
+        <v>59.24156036142782</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>25.72731994832751</v>
+        <v>25.72731994835297</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>45.88018721341624</v>
+        <v>45.88018721339441</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>53.01499850138853</v>
+        <v>53.01499850140854</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-5.86023748664249</v>
+        <v>-5.860237486678415</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>22.36237858419739</v>
+        <v>22.36237858419636</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>28.63728966281772</v>
+        <v>28.63728966283398</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-2.892482959437274</v>
+        <v>-2.892482959510943</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>14.46662495639649</v>
+        <v>14.46662495637921</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>19.69076671800704</v>
+        <v>19.69076671792791</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>10.14081074128697</v>
+        <v>10.14081074124218</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>23.21245187113598</v>
+        <v>23.21245187108835</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>27.88729304857932</v>
+        <v>27.88729304850918</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.54929969353955</v>
+        <v>29.5492996934934</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>39.29583199621052</v>
+        <v>39.29583199614868</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>42.92682256395793</v>
+        <v>42.92682256389267</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>9.430158038836709</v>
+        <v>9.430158038746669</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.56940136307801</v>
+        <v>29.56940136307085</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.70228236778965</v>
+        <v>36.70228236773497</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-0.41738322994226</v>
+        <v>-0.4173832299333924</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>27.81180282432823</v>
+        <v>27.81180282430356</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>34.08899048643028</v>
+        <v>34.08899048642311</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>2.544064113699761</v>
+        <v>2.544064113671112</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>19.90938811097126</v>
+        <v>19.90938811090771</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>25.13546169313614</v>
+        <v>25.13546169312147</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>15.58394771076203</v>
+        <v>15.58394771076181</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.66171383603424</v>
+        <v>28.66171383598581</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>33.33792661823955</v>
+        <v>33.33792661820658</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>35.00311546177252</v>
+        <v>35.00311546169431</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>44.75423003748406</v>
+        <v>44.75423003748588</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>48.38625858962283</v>
+        <v>48.38625858958281</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>14.87814457578637</v>
+        <v>14.87814457583912</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>35.02834235005801</v>
+        <v>35.02834235010906</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>42.16156623124564</v>
+        <v>42.16156623123939</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>7.385565056876914</v>
+        <v>7.385565056854858</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>35.61572567832835</v>
+        <v>35.61572567828844</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>41.89416404614693</v>
+        <v>41.89416404608315</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>10.35275230087225</v>
+        <v>10.35275230080518</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>27.71916141448244</v>
+        <v>27.71916141449154</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>32.94653103740032</v>
+        <v>32.94653103733074</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>23.39458859034769</v>
+        <v>23.39458859033019</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>36.4729076618485</v>
+        <v>36.47290766186498</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>41.15075803216385</v>
+        <v>41.1507580321219</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>42.81962074532774</v>
+        <v>42.81962074528954</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>52.57147086073681</v>
+        <v>52.57147086075045</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>56.20452013283992</v>
+        <v>56.20452013280809</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>22.69268718008109</v>
+        <v>22.69268718011406</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>42.84364823293154</v>
+        <v>42.84364823290426</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>49.97836079306072</v>
+        <v>49.97836079304798</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-7.61748790773035</v>
+        <v>-7.617487907706703</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>20.60723396832523</v>
+        <v>20.60723396832819</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>26.88164248782633</v>
+        <v>26.88164248788749</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-4.649451632884023</v>
+        <v>-4.649451632891299</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>12.71177221855365</v>
+        <v>12.71177221862595</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>17.93525661284789</v>
+        <v>17.9352566128795</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>8.384720388568013</v>
+        <v>8.384720388557099</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>21.45821701723153</v>
+        <v>21.45821701723108</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>26.13250431705561</v>
+        <v>26.1325043170622</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>27.7943969959056</v>
+        <v>27.7943969958142</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>37.54112116367847</v>
+        <v>37.54112116363913</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>41.17187479739405</v>
+        <v>41.17187479741179</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>7.672612004349531</v>
+        <v>7.672612004388412</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>27.81426643912951</v>
+        <v>27.81426643914861</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>34.94659048576696</v>
+        <v>34.94659048582153</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>-2.17587485101896</v>
+        <v>-2.175874850975305</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>26.05541720760758</v>
+        <v>26.05541720763668</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>32.33210226745487</v>
+        <v>32.33210226750217</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>0.7858542632987167</v>
+        <v>0.7858542633903483</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>18.15329435935328</v>
+        <v>18.15329435931986</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>23.3787105366554</v>
+        <v>23.37871053671543</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>13.8266164144234</v>
+        <v>13.82661641443431</v>
       </c>
     </row>
     <row r="789">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>31.58189705440523</v>
+        <v>31.58189705443343</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>33.24697219623388</v>
+        <v>33.24697219619387</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>42.99827857779795</v>
+        <v>42.99827857777873</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>46.63007014675762</v>
+        <v>46.63007014674204</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>13.11935787290284</v>
+        <v>13.11935787288829</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>33.27196698667925</v>
+        <v>33.27196698669016</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>40.40463397110219</v>
+        <v>40.40463397111742</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>5.627393526939414</v>
+        <v>5.62739352694669</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>33.85966013625799</v>
+        <v>33.85966013629437</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>40.13759597270669</v>
+        <v>40.13759597271761</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>8.59486242893243</v>
+        <v>8.594862428910602</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>25.96338765772796</v>
+        <v>25.96338765774979</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>31.19009995712602</v>
+        <v>31.19009995713739</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>21.63757734432559</v>
+        <v>21.63757734429694</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>34.71775206216583</v>
+        <v>34.71775206218823</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>39.39504860605942</v>
+        <v>39.39504860606681</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>41.06379749143983</v>
+        <v>41.06379749140754</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>50.81583944144589</v>
+        <v>50.81583944145328</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>54.44865186891323</v>
+        <v>54.44865186890584</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>20.93422060460128</v>
+        <v>20.93422060467449</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>41.0875929899195</v>
+        <v>41.08759298991973</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>48.22174868047219</v>
+        <v>48.22174868046946</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-14.32800710175079</v>
+        <v>-14.32800710178807</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>13.89312021852507</v>
+        <v>13.89312021852291</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>20.16754423751823</v>
+        <v>20.16754423744717</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-11.36190347741294</v>
+        <v>-11.36190347743465</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>5.996273001692799</v>
+        <v>5.996273001701667</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>11.21995087735471</v>
+        <v>11.21995087734766</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>1.670671188090893</v>
+        <v>1.670671188056104</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>14.74158782706914</v>
+        <v>14.74158782707914</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>19.41599968386859</v>
+        <v>19.41599968383835</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>21.07784050291642</v>
+        <v>21.07784050291505</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>30.82363296033694</v>
+        <v>30.8236329603549</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>34.4544495029202</v>
+        <v>34.45444950296317</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>0.9596507993108219</v>
+        <v>0.9596507993442458</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>21.09788314970675</v>
+        <v>21.09788314975052</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.23018649101633</v>
+        <v>28.23018649098711</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-8.882766516076316</v>
+        <v>-8.882766516085297</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>19.34493073643208</v>
+        <v>19.34493073642275</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>25.62163132982133</v>
+        <v>25.62163132979018</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-5.922969757445202</v>
+        <v>-5.922969757423942</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>11.44142276363485</v>
+        <v>11.44142276360995</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>16.6670324786642</v>
+        <v>16.66703247866931</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>7.116194710008386</v>
+        <v>7.116194709957227</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>20.1932362901106</v>
+        <v>20.19323629010492</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>24.86901978515962</v>
+        <v>24.86901978518395</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>26.53404252952376</v>
+        <v>26.53404252948738</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>36.2844170863257</v>
+        <v>36.2844170862908</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>39.91627163492515</v>
+        <v>39.91627163497051</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>6.410023551948626</v>
+        <v>6.410023551913156</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>26.559210202841</v>
+        <v>26.55921020284805</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>33.6918565498037</v>
+        <v>33.69185654985191</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-1.079030428813866</v>
+        <v>-1.079030428838422</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>27.1496414141632</v>
+        <v>27.14964141412864</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>33.42759259790571</v>
+        <v>33.42759259791936</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>1.886505942399737</v>
+        <v>1.886505942446121</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>19.25198360610696</v>
+        <v>19.25198360611333</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>24.47888925605392</v>
+        <v>24.47888925610758</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>14.92762308007516</v>
+        <v>14.92762308005334</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.00521764735711</v>
+        <v>28.00521764741157</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>32.68263860213827</v>
+        <v>32.68263860215271</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>34.35133499898532</v>
+        <v>34.35133499896895</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>44.10244504513233</v>
+        <v>44.10244504512232</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>47.73532025582793</v>
+        <v>47.73532025583339</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>14.22535346796511</v>
+        <v>14.22535346796147</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>34.37530338206435</v>
+        <v>34.37530338205252</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>41.50943825726191</v>
+        <v>41.50943825731193</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-7.947516969878592</v>
+        <v>-7.947516969823226</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>20.27485046534028</v>
+        <v>20.2748504653247</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>26.54978791440615</v>
+        <v>26.54978791449062</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-4.979981000068818</v>
+        <v>-4.979981000071547</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>12.37889442584188</v>
+        <v>12.3788944258346</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>17.60308008986399</v>
+        <v>17.60308008989674</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>8.053153650975474</v>
+        <v>8.053153651015492</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>21.12459977309246</v>
+        <v>21.12459977313429</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>25.79947477997931</v>
+        <v>25.79947477996748</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>27.46154924813735</v>
+        <v>27.46154924817918</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>37.208004640582</v>
+        <v>37.20800464062373</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>40.83901626953846</v>
+        <v>40.83901626953562</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>7.342651696765444</v>
+        <v>7.342651696759077</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>27.48168260232151</v>
+        <v>27.48168260234675</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>34.61457871596477</v>
+        <v>34.61457871597568</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-2.504982595803284</v>
+        <v>-2.504982595829659</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>25.72395481807283</v>
+        <v>25.72395481807362</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>32.00116887616176</v>
+        <v>32.00116887612162</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>0.456246199199569</v>
+        <v>0.4562461991838802</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>17.82133770446174</v>
+        <v>17.82133770445367</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>23.0474552192284</v>
+        <v>23.04745521914143</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>13.49597071130373</v>
+        <v>13.49597071130327</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>26.57354182457917</v>
+        <v>26.57354182458963</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>31.24978846567015</v>
+        <v>31.24978846567447</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>32.91504509920063</v>
+        <v>32.91504509923791</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>42.66608276081163</v>
+        <v>42.66608276081902</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>46.29813239312242</v>
+        <v>46.29813239309297</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>12.79031831131331</v>
+        <v>12.79031831130581</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>32.94030365948836</v>
+        <v>32.94030365942004</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>40.07354268040379</v>
+        <v>40.0735426803939</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>5.298248044997337</v>
+        <v>5.298248044956409</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>33.52816003628348</v>
+        <v>33.52816003629349</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>39.80662478429102</v>
+        <v>39.8066247842801</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>8.265216748701306</v>
+        <v>8.265216748709264</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>25.63139338006309</v>
+        <v>25.63139338014358</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>30.85880692094511</v>
+        <v>30.85880692100969</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>21.30689396159531</v>
+        <v>21.30689396156848</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>34.38501803148907</v>
+        <v>34.38501803148873</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>39.06290224275349</v>
+        <v>39.0629022428009</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>40.73183274572742</v>
+        <v>40.73183274582587</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>50.4836059377424</v>
+        <v>50.48360593778617</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>54.1166762783071</v>
+        <v>54.1166762783736</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>20.60514327878471</v>
+        <v>20.60514327870513</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>40.75589190371673</v>
+        <v>40.75589190368069</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>47.89061959008612</v>
+        <v>47.89061959006486</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-2.160676536937757</v>
+        <v>-2.160676536948671</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>26.06184397051689</v>
+        <v>26.06184397051223</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>32.33627999143837</v>
+        <v>32.33627999142712</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>0.8077476362241498</v>
+        <v>0.8077476362075515</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>18.16724367091197</v>
+        <v>18.16724367095836</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>23.39087014186785</v>
+        <v>23.39087014184648</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>13.84132918878871</v>
+        <v>13.84132918876529</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>26.91329279330787</v>
+        <v>26.91329279330674</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>31.58773874472993</v>
+        <v>31.58773874469651</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>33.24944386691575</v>
+        <v>33.24944386696328</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>42.99548805010343</v>
+        <v>42.99548805008456</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>46.62628293124888</v>
+        <v>46.62628293130618</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>13.12992404320133</v>
+        <v>13.1299240432302</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>33.26936197995431</v>
+        <v>33.26936197992873</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>40.40179167461773</v>
+        <v>40.40179167459419</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>3.280685845016052</v>
+        <v>3.280685845114732</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>31.50977613720775</v>
+        <v>31.50977613722264</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>37.78648855548423</v>
+        <v>37.78648855553504</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>6.242802896097174</v>
+        <v>6.242802896127188</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>23.60851477501788</v>
+        <v>23.60851477496047</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.83407290344863</v>
+        <v>28.8340729034376</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>19.28297423271763</v>
+        <v>19.28297423283428</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>32.36106260050659</v>
+        <v>32.3610626006263</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>37.03688003272876</v>
+        <v>37.03688003283233</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>38.70176746789937</v>
+        <v>38.70176746797418</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>48.45239360757208</v>
+        <v>48.45239360758652</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>52.08422641480686</v>
+        <v>52.08422641484404</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>18.57641863047596</v>
+        <v>18.57641863047937</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>38.72681071148762</v>
+        <v>38.72681071152206</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>45.85958314172311</v>
+        <v>45.85958314172299</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>11.08374256423807</v>
+        <v>11.08374256418804</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>39.31380736753661</v>
+        <v>39.31380736758209</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>45.59177047216329</v>
+        <v>45.59177047205233</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>14.05159916717915</v>
+        <v>14.05159916713458</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>31.41839611939739</v>
+        <v>31.41839611939079</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>36.64525026406753</v>
+        <v>36.64525026402933</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>27.09372317177352</v>
+        <v>27.09372317179603</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>40.17236445391794</v>
+        <v>40.17236445400502</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>44.84981944925883</v>
+        <v>44.84981944928612</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>46.51838051484881</v>
+        <v>46.51838051490316</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>56.269742205619</v>
+        <v>56.26974220565765</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>59.90259575739199</v>
+        <v>59.90259575740996</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>26.391069109028</v>
+        <v>26.3910691090496</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>46.54222442192932</v>
+        <v>46.54222442192375</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>53.67648548089747</v>
+        <v>53.67648548083824</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-6.838549474409746</v>
+        <v>-6.838549474419182</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>21.3860361402117</v>
+        <v>21.38603614022489</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>27.66044449586232</v>
+        <v>27.66044449587665</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-3.870374832380065</v>
+        <v>-3.87037483228525</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>13.49077647502511</v>
+        <v>13.49077647504137</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>18.71426303479259</v>
+        <v>18.71426303480067</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>9.163770776748407</v>
+        <v>9.163770776766825</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>22.23721104858956</v>
+        <v>22.23721104860581</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>26.91150624612069</v>
+        <v>26.91150624612058</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>28.57346145262889</v>
+        <v>28.57346145262184</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>38.32020602505352</v>
+        <v>38.3202060250434</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>41.9509143402959</v>
+        <v>41.95091434027395</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>8.451810155342656</v>
+        <v>8.451810155410186</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>28.59338692172437</v>
+        <v>28.59338692175791</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>35.72569432452215</v>
+        <v>35.7256943245068</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>-1.396924306062573</v>
+        <v>-1.396924306060754</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>26.83423145130601</v>
+        <v>26.83423145130965</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>33.11091631623313</v>
+        <v>33.11091631624222</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>1.564943232758679</v>
+        <v>1.564943232772777</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>18.93231075297095</v>
+        <v>18.93231075303996</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>24.15772905845384</v>
+        <v>24.15772905844099</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>14.60567892810334</v>
+        <v>14.60567892811426</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>27.68524431724191</v>
+        <v>27.68524431726101</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>32.3609110472311</v>
+        <v>32.36091104720927</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>34.02604869320342</v>
+        <v>34.02604869319956</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>43.77737546771451</v>
+        <v>43.77737546771439</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>47.40912171026494</v>
+        <v>47.40912171026505</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>13.89856810412655</v>
+        <v>13.89856810415975</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>34.05109948802775</v>
+        <v>34.05109948806765</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>41.18374980489389</v>
+        <v>41.18374980491583</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>6.405913705831637</v>
+        <v>6.405913705799804</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>34.63804400353027</v>
+        <v>34.63804400359757</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>40.91597962974836</v>
+        <v>40.91597962979566</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>9.373521012511929</v>
+        <v>9.373521012476232</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>26.74197365275248</v>
+        <v>26.74197365277067</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>31.96868806839282</v>
+        <v>31.96868806838191</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>22.41620941971522</v>
+        <v>22.41620941974432</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>35.49632773909448</v>
+        <v>35.49632773909539</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>40.17363213737158</v>
+        <v>40.1736321374116</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>41.84244355103445</v>
+        <v>41.84244355104536</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>51.59450588548887</v>
+        <v>51.59450588552161</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>55.22727297386885</v>
+        <v>55.22727297384611</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>21.71300041210932</v>
+        <v>21.71300041208386</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>41.86629506026227</v>
+        <v>41.8662950602841</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>49.00043407624051</v>
+        <v>49.00043407623323</v>
       </c>
     </row>
   </sheetData>
